--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/CT/Manifest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1334515A-BCE0-3B46-AD24-9724B6B22DF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007AE0C-6C49-1747-9EA4-377A13FBACBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38780" yWindow="460" windowWidth="20160" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007AE0C-6C49-1747-9EA4-377A13FBACBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE7820-12BC-4D49-9EB3-398DD46F4502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="460" windowWidth="20160" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38740" yWindow="460" windowWidth="30240" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -59,12 +59,18 @@
   <si>
     <t>Ver</t>
   </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,8 +86,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +175,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,1193 +505,1390 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="14.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>39147</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <v>39147</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="D3" s="3">
         <v>39192</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>39192</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <f>A3+1</f>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4">
+        <f>C3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D4" s="3">
         <v>39198</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>39198</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <f>A4+1</f>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4">
+        <f>C4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="D5" s="3">
         <v>39233</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>39233</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <f>A5+1</f>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4">
+        <f>C5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="D6" s="3">
         <v>39238</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E6" s="3">
         <v>39238</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <f>A6+1</f>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9">
+        <v>2008</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="D7" s="5">
         <v>39462</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>39462</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <f t="shared" ref="A8:A59" si="0">A7+1</f>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="D8" s="5">
         <v>39472</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E8" s="5">
         <v>39472</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="D9" s="5">
         <v>39686</v>
       </c>
-      <c r="C9" s="5">
+      <c r="E9" s="5">
         <v>39686</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="D10" s="5">
         <v>39713</v>
       </c>
-      <c r="C10" s="5">
+      <c r="E10" s="5">
         <v>39713</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="D11" s="5">
         <v>39715</v>
       </c>
-      <c r="C11" s="5">
+      <c r="E11" s="5">
         <v>39715</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="D12" s="5">
         <v>39721</v>
       </c>
-      <c r="C12" s="5">
+      <c r="E12" s="5">
         <v>39721</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="D13" s="5">
         <v>39730</v>
       </c>
-      <c r="C13" s="5">
+      <c r="E13" s="5">
         <v>39730</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="D14" s="5">
         <v>39736</v>
       </c>
-      <c r="C14" s="5">
+      <c r="E14" s="5">
         <v>39736</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="D15" s="3">
         <v>39861</v>
       </c>
-      <c r="C15" s="3">
+      <c r="E15" s="3">
         <v>39861</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="D16" s="3">
         <v>39862</v>
       </c>
-      <c r="C16" s="3">
+      <c r="E16" s="3">
         <v>39862</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="D17" s="3">
         <v>39934</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
         <v>39934</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="D18" s="3">
         <v>40000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="E18" s="3">
         <v>40000</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="D19" s="3">
         <v>40092</v>
       </c>
-      <c r="C19" s="3">
+      <c r="E19" s="3">
         <v>40092</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="D20" s="5">
         <v>40242</v>
       </c>
-      <c r="C20" s="5">
+      <c r="E20" s="5">
         <v>40242</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
         <v>40242</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>40242</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="D21" s="5">
         <v>40276</v>
       </c>
-      <c r="C21" s="5">
+      <c r="E21" s="5">
         <v>40276</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="D22" s="5">
         <v>40361</v>
       </c>
-      <c r="C22" s="5">
+      <c r="E22" s="5">
         <v>40361</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="D23" s="5">
         <v>40457</v>
       </c>
-      <c r="C23" s="5">
+      <c r="E23" s="5">
         <v>40457</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5">
         <v>40457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="D24" s="5">
         <v>40473</v>
       </c>
-      <c r="C24" s="5">
+      <c r="E24" s="5">
         <v>40473</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="D25" s="3">
         <v>40550</v>
       </c>
-      <c r="C25" s="3">
+      <c r="E25" s="3">
         <v>40550</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>40550</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>40550</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="D26" s="3">
         <v>40641</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
         <v>40641</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>40641</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="D27" s="3">
         <v>40704</v>
       </c>
-      <c r="C27" s="3">
+      <c r="E27" s="3">
         <v>40704</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="D28" s="3">
         <v>40746</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
         <v>40746</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>40746</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>40746</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="D29" s="3">
         <v>40886</v>
       </c>
-      <c r="C29" s="3">
+      <c r="E29" s="3">
         <v>40886</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>40886</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9">
+        <v>2012</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>40991</v>
-      </c>
-      <c r="C30" s="5">
-        <v>40991</v>
       </c>
       <c r="D30" s="5">
         <v>40991</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="E30" s="5">
+        <v>40991</v>
+      </c>
+      <c r="F30" s="5">
+        <v>40991</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>41089</v>
-      </c>
-      <c r="C31" s="5">
-        <v>41089</v>
       </c>
       <c r="D31" s="5">
         <v>41089</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
+      <c r="E31" s="5">
         <v>41089</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="F31" s="5">
+        <v>41089</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <v>41089</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>41124</v>
-      </c>
-      <c r="C32" s="5">
-        <v>41124</v>
       </c>
       <c r="D32" s="5">
         <v>41124</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="E32" s="5">
+        <v>41124</v>
+      </c>
+      <c r="F32" s="5">
+        <v>41124</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>41264</v>
-      </c>
-      <c r="C33" s="5">
-        <v>41264</v>
       </c>
       <c r="D33" s="5">
         <v>41264</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5">
+      <c r="E33" s="5">
         <v>41264</v>
       </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="F33" s="5">
+        <v>41264</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
+        <v>41264</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>41376</v>
-      </c>
-      <c r="C34" s="3">
-        <v>41376</v>
       </c>
       <c r="D34" s="3">
         <v>41376</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="E34" s="3">
+        <v>41376</v>
+      </c>
+      <c r="F34" s="3">
+        <v>41376</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>41453</v>
-      </c>
-      <c r="C35" s="3">
-        <v>41453</v>
       </c>
       <c r="D35" s="3">
         <v>41453</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
+      <c r="E35" s="3">
         <v>41453</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="F35" s="3">
+        <v>41453</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>41453</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>41551</v>
-      </c>
-      <c r="C36" s="3">
-        <v>41551</v>
       </c>
       <c r="D36" s="3">
         <v>41551</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
+      <c r="E36" s="3">
         <v>41551</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="F36" s="3">
+        <v>41551</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>41551</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>41628</v>
-      </c>
-      <c r="C37" s="3">
-        <v>41628</v>
       </c>
       <c r="D37" s="3">
         <v>41628</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
+      <c r="E37" s="3">
         <v>41628</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="F37" s="3">
+        <v>41628</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>41628</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>41726</v>
-      </c>
-      <c r="C38" s="5">
-        <v>41726</v>
       </c>
       <c r="D38" s="5">
         <v>41726</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5">
+      <c r="E38" s="5">
         <v>41726</v>
       </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="F38" s="5">
+        <v>41726</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
+        <v>41726</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="D39" s="5">
         <v>41817</v>
       </c>
-      <c r="C39" s="5">
-        <v>41817</v>
-      </c>
-      <c r="D39" s="6"/>
       <c r="E39" s="5">
         <v>41817</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="F39" s="6"/>
+      <c r="G39" s="5">
+        <v>41817</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="D40" s="5">
         <v>41908</v>
       </c>
-      <c r="C40" s="5">
-        <v>41908</v>
-      </c>
-      <c r="D40" s="6"/>
       <c r="E40" s="5">
         <v>41908</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5">
+      <c r="F40" s="6"/>
+      <c r="G40" s="5">
         <v>41908</v>
       </c>
-      <c r="I40" s="5">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>41908</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="K40" s="5">
+        <v>41908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="D41" s="5">
         <v>41918</v>
       </c>
-      <c r="C41" s="5">
+      <c r="E41" s="5">
         <v>41918</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="D42" s="5">
         <v>41992</v>
       </c>
-      <c r="C42" s="5">
+      <c r="E42" s="5">
         <v>41992</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5">
         <v>41992</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="D43" s="3">
         <v>42090</v>
       </c>
-      <c r="C43" s="3">
+      <c r="E43" s="3">
         <v>42090</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3">
-        <v>42090</v>
-      </c>
-      <c r="G43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="3">
         <v>42090</v>
       </c>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <v>42090</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="D44" s="3">
         <v>42181</v>
       </c>
-      <c r="C44" s="3">
+      <c r="E44" s="3">
         <v>42181</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
         <v>42181</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="D45" s="3">
         <v>42272</v>
       </c>
-      <c r="C45" s="3">
+      <c r="E45" s="3">
         <v>42272</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>42272</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="D46" s="3">
         <v>42356</v>
       </c>
-      <c r="C46" s="3">
+      <c r="E46" s="3">
         <v>42356</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3">
         <v>42356</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="D47" s="5">
         <v>42454</v>
       </c>
-      <c r="C47" s="5">
+      <c r="E47" s="5">
         <v>42454</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5">
         <v>42454</v>
       </c>
-      <c r="I47" s="5">
+      <c r="K47" s="5">
         <v>42454</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="D48" s="5">
         <v>42545</v>
       </c>
-      <c r="C48" s="5">
+      <c r="E48" s="5">
         <v>42545</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="D49" s="5">
         <v>42643</v>
       </c>
-      <c r="C49" s="5">
+      <c r="E49" s="5">
         <v>42643</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
         <v>42643</v>
       </c>
-      <c r="I49" s="5">
+      <c r="K49" s="5">
         <v>42643</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="D50" s="5">
         <v>42720</v>
       </c>
-      <c r="C50" s="5">
+      <c r="E50" s="5">
         <v>42720</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5">
         <v>42720</v>
       </c>
-      <c r="I50" s="5">
+      <c r="K50" s="5">
         <v>42720</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="D51" s="3">
         <v>42825</v>
       </c>
-      <c r="C51" s="3">
+      <c r="E51" s="3">
         <v>42825</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3">
         <v>42825</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="D52" s="3">
         <v>42916</v>
       </c>
-      <c r="C52" s="3">
+      <c r="E52" s="3">
         <v>42916</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="D53" s="3">
         <v>43007</v>
       </c>
-      <c r="C53" s="3">
+      <c r="E53" s="3">
         <v>43007</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
         <v>43007</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>43007</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="D54" s="3">
         <v>43091</v>
       </c>
-      <c r="C54" s="3">
+      <c r="E54" s="3">
         <v>43091</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="D55" s="5">
         <v>43189</v>
       </c>
-      <c r="C55" s="5">
+      <c r="E55" s="5">
         <v>43189</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5">
         <v>43189</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="D56" s="5">
         <v>43280</v>
       </c>
-      <c r="C56" s="5">
+      <c r="E56" s="5">
         <v>43280</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
         <v>43280</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="D57" s="5">
         <v>43371</v>
       </c>
-      <c r="C57" s="5">
+      <c r="E57" s="5">
         <v>43371</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
         <v>43371</v>
       </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="D58" s="5">
         <v>43455</v>
       </c>
-      <c r="C58" s="5">
+      <c r="E58" s="5">
         <v>43455</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5">
         <v>43455</v>
       </c>
-      <c r="I58" s="5">
+      <c r="K58" s="5">
         <v>43455</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="D59" s="3">
         <v>43553</v>
       </c>
-      <c r="C59" s="3">
+      <c r="E59" s="3">
         <v>43553</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
         <v>43553</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>43553</v>
       </c>
     </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D60" s="3">
+        <v>43644</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43644</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A60"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B33"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AE7820-12BC-4D49-9EB3-398DD46F4502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE8A54-FF16-7A42-BC5B-DD4A5CB7869F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="460" windowWidth="30240" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38720" yWindow="460" windowWidth="30240" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +507,7 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +554,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="8">
@@ -577,7 +577,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>2</v>
@@ -596,7 +596,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4">
         <f>C3+1</f>
@@ -616,7 +616,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
@@ -638,7 +638,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4">
         <f>C5+1</f>
@@ -658,8 +658,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -680,8 +680,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
@@ -700,8 +700,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -720,10 +720,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -742,8 +742,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -762,8 +762,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -782,8 +782,8 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -802,8 +802,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -822,7 +822,7 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="8">
         <v>2009</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -864,7 +864,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
       <c r="B17" s="8"/>
@@ -886,7 +886,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -906,7 +906,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -926,8 +926,8 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -952,10 +952,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>5</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -974,8 +974,8 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -994,8 +994,8 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1016,8 +1016,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1036,7 +1036,7 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="8">
         <v>2011</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1084,7 +1084,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -1104,7 +1104,7 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -1150,8 +1150,8 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1174,8 +1174,8 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1198,8 +1198,8 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1220,8 +1220,8 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1244,7 +1244,7 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="8">
         <v>2013</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -1292,7 +1292,7 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
@@ -1316,7 +1316,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
@@ -1340,8 +1340,8 @@
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11">
         <v>2014</v>
       </c>
       <c r="C38" s="2">
@@ -1366,8 +1366,8 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1388,8 +1388,8 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1414,8 +1414,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1434,8 +1434,8 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1456,7 +1456,7 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="8">
         <v>2015</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
@@ -1504,7 +1504,7 @@
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
@@ -1526,7 +1526,7 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
@@ -1548,8 +1548,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1574,8 +1574,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1594,8 +1594,8 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1618,8 +1618,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="8">
         <v>2017</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="8"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
@@ -1686,7 +1686,7 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="8"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="8"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
@@ -1730,8 +1730,8 @@
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11">
         <v>2018</v>
       </c>
       <c r="C55" s="2">
@@ -1754,8 +1754,8 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1776,8 +1776,8 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1798,8 +1798,8 @@
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="8">
         <v>2019</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
@@ -1869,6 +1869,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
@@ -1885,8 +1887,6 @@
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE8A54-FF16-7A42-BC5B-DD4A5CB7869F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EDF32-CB63-B34D-8319-235DD2DA2408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="460" windowWidth="30240" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38720" yWindow="460" windowWidth="34100" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>--"--</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -126,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -149,11 +155,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,14 +241,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +637,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="8">
@@ -577,7 +660,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>2</v>
@@ -596,7 +679,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4">
         <f>C3+1</f>
@@ -616,7 +699,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
@@ -638,7 +721,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4">
         <f>C5+1</f>
@@ -658,8 +741,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -680,8 +763,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
@@ -700,8 +783,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -720,10 +803,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -742,8 +825,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -762,8 +845,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -782,8 +865,8 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -802,8 +885,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -822,7 +905,7 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8">
         <v>2009</v>
       </c>
@@ -844,7 +927,7 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -864,7 +947,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
       <c r="B17" s="8"/>
@@ -886,7 +969,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -906,7 +989,7 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -926,8 +1009,8 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -952,10 +1035,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -970,12 +1053,16 @@
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -990,12 +1077,16 @@
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1010,14 +1101,16 @@
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="K23" s="5">
         <v>40457</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1032,11 +1125,15 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="8">
         <v>2011</v>
       </c>
@@ -1062,7 +1159,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -1081,10 +1178,12 @@
       <c r="J26" s="3">
         <v>40641</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -1100,11 +1199,15 @@
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="J27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -1128,7 +1231,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -1147,11 +1250,13 @@
       <c r="J29" s="3">
         <v>40886</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1170,12 +1275,16 @@
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1195,11 +1304,13 @@
       <c r="J31" s="5">
         <v>41089</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1216,12 +1327,16 @@
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1241,10 +1356,12 @@
       <c r="J33" s="5">
         <v>41264</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="8">
         <v>2013</v>
       </c>
@@ -1264,11 +1381,15 @@
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="J34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -1289,10 +1410,12 @@
       <c r="J35" s="3">
         <v>41453</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
@@ -1313,10 +1436,12 @@
       <c r="J36" s="3">
         <v>41551</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
@@ -1337,11 +1462,13 @@
       <c r="J37" s="3">
         <v>41628</v>
       </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11">
+      <c r="K37" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9">
         <v>2014</v>
       </c>
       <c r="C38" s="2">
@@ -1354,7 +1481,7 @@
       <c r="E38" s="5">
         <v>41726</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="13">
         <v>41726</v>
       </c>
       <c r="G38" s="6"/>
@@ -1363,11 +1490,13 @@
       <c r="J38" s="5">
         <v>41726</v>
       </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
+      <c r="K38" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1378,18 +1507,22 @@
       <c r="E39" s="5">
         <v>41817</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="5">
         <v>41817</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1401,7 +1534,7 @@
         <v>41908</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="5">
+      <c r="G40" s="14">
         <v>41908</v>
       </c>
       <c r="H40" s="5"/>
@@ -1413,9 +1546,9 @@
         <v>41908</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
+    <row r="41" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1427,15 +1560,21 @@
         <v>41918</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
+      <c r="J41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1452,11 +1591,15 @@
         <v>41992</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="J42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
       <c r="B43" s="8">
         <v>2015</v>
       </c>
@@ -1472,17 +1615,19 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="3">
+      <c r="H43" s="15">
         <v>42090</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
         <v>42090</v>
       </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="K43" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
@@ -1496,15 +1641,19 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="3">
         <v>42181</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="J44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
@@ -1519,14 +1668,18 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3">
+      <c r="I45" s="15">
         <v>42272</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="J45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
@@ -1541,15 +1694,17 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="K46" s="3">
         <v>42356</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1574,8 +1729,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1590,12 +1745,16 @@
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1618,8 +1777,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1642,7 +1801,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="8">
         <v>2017</v>
       </c>
@@ -1660,13 +1819,15 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="K51" s="3">
         <v>42825</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="8"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
@@ -1682,11 +1843,15 @@
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="J52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="8"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
@@ -1710,7 +1875,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="8"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
@@ -1726,12 +1891,16 @@
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="J54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9">
         <v>2018</v>
       </c>
       <c r="C55" s="2">
@@ -1751,11 +1920,13 @@
       <c r="J55" s="5">
         <v>43189</v>
       </c>
-      <c r="K55" s="6"/>
+      <c r="K55" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1773,11 +1944,13 @@
       <c r="J56" s="5">
         <v>43280</v>
       </c>
-      <c r="K56" s="6"/>
+      <c r="K56" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1795,11 +1968,13 @@
       <c r="J57" s="5">
         <v>43371</v>
       </c>
-      <c r="K57" s="6"/>
+      <c r="K57" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1822,7 +1997,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="8">
         <v>2019</v>
       </c>
@@ -1848,7 +2023,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="8"/>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
@@ -1864,11 +2039,17 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="J60" s="3">
+        <v>43644</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B59:B60"/>
@@ -1885,8 +2066,6 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EDF32-CB63-B34D-8319-235DD2DA2408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DC85B-0125-5341-9689-C30F43DBD2E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="460" windowWidth="34100" windowHeight="19000" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,18 +238,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +258,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +590,7 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -637,10 +637,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="15">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -660,8 +660,8 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -679,8 +679,8 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -699,10 +699,10 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -721,8 +721,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -741,8 +741,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -763,8 +763,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
@@ -783,8 +783,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -803,10 +803,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -825,8 +825,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -845,8 +845,8 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -865,8 +865,8 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -885,8 +885,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -905,8 +905,8 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -927,8 +927,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -947,10 +947,10 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -969,8 +969,8 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -989,8 +989,8 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1009,8 +1009,8 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1035,10 +1035,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1053,16 +1053,16 @@
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1077,16 +1077,16 @@
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="17" t="s">
+      <c r="J22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1101,7 +1101,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="5">
@@ -1109,8 +1109,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1125,16 +1125,16 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1159,8 +1159,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1178,13 +1178,13 @@
       <c r="J26" s="3">
         <v>40641</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1199,16 +1199,16 @@
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="J27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1231,8 +1231,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1250,13 +1250,13 @@
       <c r="J29" s="3">
         <v>40886</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1275,16 +1275,16 @@
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="17" t="s">
+      <c r="J30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1304,13 +1304,13 @@
       <c r="J31" s="5">
         <v>41089</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1327,16 +1327,16 @@
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="17" t="s">
+      <c r="J32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1356,13 +1356,13 @@
       <c r="J33" s="5">
         <v>41264</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15">
         <v>2013</v>
       </c>
       <c r="C34" s="4">
@@ -1381,16 +1381,16 @@
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="18" t="s">
+      <c r="J34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1410,13 +1410,13 @@
       <c r="J35" s="3">
         <v>41453</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1436,13 +1436,13 @@
       <c r="J36" s="3">
         <v>41551</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1462,13 +1462,13 @@
       <c r="J37" s="3">
         <v>41628</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16">
         <v>2014</v>
       </c>
       <c r="C38" s="2">
@@ -1481,7 +1481,7 @@
       <c r="E38" s="5">
         <v>41726</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <v>41726</v>
       </c>
       <c r="G38" s="6"/>
@@ -1490,13 +1490,13 @@
       <c r="J38" s="5">
         <v>41726</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1507,22 +1507,22 @@
       <c r="E39" s="5">
         <v>41817</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="5">
         <v>41817</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="17" t="s">
+      <c r="J39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1534,7 +1534,7 @@
         <v>41908</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="14">
+      <c r="G40" s="10">
         <v>41908</v>
       </c>
       <c r="H40" s="5"/>
@@ -1547,8 +1547,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1560,21 +1560,21 @@
         <v>41918</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="17" t="s">
+      <c r="J41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1591,16 +1591,16 @@
         <v>41992</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="17" t="s">
+      <c r="J42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15">
         <v>2015</v>
       </c>
       <c r="C43" s="4">
@@ -1615,20 +1615,20 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="15">
+      <c r="H43" s="11">
         <v>42090</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
         <v>42090</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1641,20 +1641,20 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="3">
         <v>42181</v>
       </c>
-      <c r="J44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="18" t="s">
+      <c r="J44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1668,19 +1668,19 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="15">
+      <c r="I45" s="11">
         <v>42272</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="18" t="s">
+      <c r="J45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1694,8 +1694,8 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="18" t="s">
+      <c r="I46" s="12"/>
+      <c r="J46" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K46" s="3">
@@ -1703,8 +1703,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1729,8 +1729,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1745,16 +1745,16 @@
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="17" t="s">
+      <c r="J48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1801,8 +1801,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15">
         <v>2017</v>
       </c>
       <c r="C51" s="4">
@@ -1819,7 +1819,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="3">
@@ -1827,8 +1827,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1843,16 +1843,16 @@
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="18" t="s">
+      <c r="J52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1875,8 +1875,8 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1891,16 +1891,16 @@
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="18" t="s">
+      <c r="J54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9">
+      <c r="A55" s="17"/>
+      <c r="B55" s="16">
         <v>2018</v>
       </c>
       <c r="C55" s="2">
@@ -1920,13 +1920,13 @@
       <c r="J55" s="5">
         <v>43189</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1944,13 +1944,13 @@
       <c r="J56" s="5">
         <v>43280</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1968,13 +1968,13 @@
       <c r="J57" s="5">
         <v>43371</v>
       </c>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1997,8 +1997,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8">
+      <c r="A59" s="17"/>
+      <c r="B59" s="15">
         <v>2019</v>
       </c>
       <c r="C59" s="4">
@@ -2023,8 +2023,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2042,32 +2042,32 @@
       <c r="J60" s="3">
         <v>43644</v>
       </c>
-      <c r="K60" s="18" t="s">
+      <c r="K60" s="14" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A60"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A60"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DC85B-0125-5341-9689-C30F43DBD2E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4631459-4250-644D-871C-8B017BD2700C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>Protocol</t>
   </si>
 </sst>
 </file>
@@ -588,20 +594,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="14.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="13" width="14.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -635,8 +640,14 @@
       <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -658,8 +669,10 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="15"/>
       <c r="C3" s="4">
@@ -677,8 +690,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="15"/>
       <c r="C4" s="4">
@@ -697,8 +712,10 @@
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -719,8 +736,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="15"/>
       <c r="C6" s="4">
@@ -739,8 +758,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="16">
         <v>2008</v>
@@ -761,8 +782,10 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
       <c r="C8" s="2">
@@ -781,8 +804,10 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="16"/>
       <c r="C9" s="2">
@@ -801,8 +826,10 @@
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>3</v>
       </c>
@@ -823,8 +850,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="16"/>
       <c r="C11" s="2">
@@ -843,8 +872,10 @@
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="16"/>
       <c r="C12" s="2">
@@ -863,8 +894,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="16"/>
       <c r="C13" s="2">
@@ -883,8 +916,10 @@
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2">
@@ -903,8 +938,10 @@
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="15">
         <v>2009</v>
@@ -925,8 +962,10 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="15"/>
       <c r="C16" s="4">
@@ -945,8 +984,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>4</v>
       </c>
@@ -967,8 +1008,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="4">
@@ -987,8 +1030,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4">
@@ -1007,8 +1052,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="16">
         <v>2010</v>
@@ -1033,8 +1080,10 @@
       <c r="K20" s="5">
         <v>40242</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>5</v>
       </c>
@@ -1059,8 +1108,10 @@
       <c r="K21" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="16"/>
       <c r="C22" s="2">
@@ -1083,8 +1134,10 @@
       <c r="K22" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="16"/>
       <c r="C23" s="2">
@@ -1107,8 +1160,10 @@
       <c r="K23" s="5">
         <v>40457</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
       <c r="C24" s="2">
@@ -1131,8 +1186,10 @@
       <c r="K24" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="15">
         <v>2011</v>
@@ -1157,8 +1214,10 @@
       <c r="K25" s="3">
         <v>40550</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="15"/>
       <c r="C26" s="4">
@@ -1181,8 +1240,10 @@
       <c r="K26" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="15"/>
       <c r="C27" s="4">
@@ -1205,8 +1266,12 @@
       <c r="K27" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>40704</v>
+      </c>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="4">
@@ -1229,8 +1294,10 @@
       <c r="K28" s="3">
         <v>40746</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4">
@@ -1253,8 +1320,10 @@
       <c r="K29" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="16">
         <v>2012</v>
@@ -1281,8 +1350,10 @@
       <c r="K30" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="16"/>
       <c r="C31" s="2">
@@ -1307,8 +1378,10 @@
       <c r="K31" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="16"/>
       <c r="C32" s="2">
@@ -1333,8 +1406,10 @@
       <c r="K32" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="16"/>
       <c r="C33" s="2">
@@ -1359,8 +1434,10 @@
       <c r="K33" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="15">
         <v>2013</v>
@@ -1387,8 +1464,10 @@
       <c r="K34" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
       <c r="C35" s="4">
@@ -1413,8 +1492,10 @@
       <c r="K35" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="15"/>
       <c r="C36" s="4">
@@ -1439,8 +1520,10 @@
       <c r="K36" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
       <c r="C37" s="4">
@@ -1465,8 +1548,10 @@
       <c r="K37" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="16">
         <v>2014</v>
@@ -1493,8 +1578,10 @@
       <c r="K38" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="16"/>
       <c r="C39" s="2">
@@ -1519,8 +1606,10 @@
       <c r="K39" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="16"/>
       <c r="C40" s="2">
@@ -1545,8 +1634,10 @@
       <c r="K40" s="5">
         <v>41908</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="16"/>
       <c r="C41" s="2">
@@ -1571,8 +1662,10 @@
       <c r="K41" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="2">
@@ -1597,8 +1690,10 @@
       <c r="K42" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="15">
         <v>2015</v>
@@ -1625,8 +1720,10 @@
       <c r="K43" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="15"/>
       <c r="C44" s="4">
@@ -1651,8 +1748,10 @@
       <c r="K44" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="15"/>
       <c r="C45" s="4">
@@ -1677,8 +1776,10 @@
       <c r="K45" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
       <c r="C46" s="4">
@@ -1701,8 +1802,10 @@
       <c r="K46" s="3">
         <v>42356</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="16">
         <v>2016</v>
@@ -1727,8 +1830,10 @@
       <c r="K47" s="5">
         <v>42454</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="16"/>
       <c r="C48" s="2">
@@ -1751,8 +1856,10 @@
       <c r="K48" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="16"/>
       <c r="C49" s="2">
@@ -1775,8 +1882,10 @@
       <c r="K49" s="5">
         <v>42643</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="16"/>
       <c r="C50" s="2">
@@ -1799,8 +1908,10 @@
       <c r="K50" s="5">
         <v>42720</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="15">
         <v>2017</v>
@@ -1825,8 +1936,10 @@
       <c r="K51" s="3">
         <v>42825</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="15"/>
       <c r="C52" s="4">
@@ -1849,8 +1962,10 @@
       <c r="K52" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
       <c r="C53" s="4">
@@ -1873,8 +1988,10 @@
       <c r="K53" s="3">
         <v>43007</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="15"/>
       <c r="C54" s="4">
@@ -1897,8 +2014,10 @@
       <c r="K54" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="16">
         <v>2018</v>
@@ -1923,8 +2042,10 @@
       <c r="K55" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="16"/>
       <c r="C56" s="2">
@@ -1947,8 +2068,10 @@
       <c r="K56" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="16"/>
       <c r="C57" s="2">
@@ -1971,8 +2094,10 @@
       <c r="K57" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="16"/>
       <c r="C58" s="2">
@@ -1995,8 +2120,10 @@
       <c r="K58" s="5">
         <v>43455</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="15">
         <v>2019</v>
@@ -2021,8 +2148,10 @@
       <c r="K59" s="3">
         <v>43553</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="15"/>
       <c r="C60" s="4">
@@ -2045,14 +2174,11 @@
       <c r="K60" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A60"/>
     <mergeCell ref="B15:B19"/>
@@ -2066,6 +2192,11 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4631459-4250-644D-871C-8B017BD2700C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D4F732-E5FD-D742-920C-D976D91801BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -265,16 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,10 +648,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -673,8 +673,8 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -694,8 +694,8 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -716,10 +716,10 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -740,8 +740,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -762,8 +762,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -786,8 +786,8 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
@@ -808,8 +808,8 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -830,10 +830,10 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -854,8 +854,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -876,8 +876,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -898,8 +898,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -920,8 +920,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -942,8 +942,8 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -966,8 +966,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -988,10 +988,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>4</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1012,8 +1012,8 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1034,8 +1034,8 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1056,8 +1056,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1084,10 +1084,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>5</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1112,8 +1112,8 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1138,8 +1138,8 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1164,8 +1164,8 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1190,8 +1190,8 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1218,8 +1218,8 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1244,8 +1244,8 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1272,8 +1272,8 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1294,12 +1294,14 @@
       <c r="K28" s="3">
         <v>40746</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="3">
+        <v>40746</v>
+      </c>
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1324,8 +1326,8 @@
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1354,8 +1356,8 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1382,8 +1384,8 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1410,8 +1412,8 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1438,8 +1440,8 @@
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17">
         <v>2013</v>
       </c>
       <c r="C34" s="4">
@@ -1468,8 +1470,8 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1496,8 +1498,8 @@
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1524,8 +1526,8 @@
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1552,8 +1554,8 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18">
         <v>2014</v>
       </c>
       <c r="C38" s="2">
@@ -1582,8 +1584,8 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1610,8 +1612,8 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1638,8 +1640,8 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1666,8 +1668,8 @@
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1694,8 +1696,8 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17">
         <v>2015</v>
       </c>
       <c r="C43" s="4">
@@ -1724,8 +1726,8 @@
       <c r="M43" s="14"/>
     </row>
     <row r="44" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1752,8 +1754,8 @@
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1780,8 +1782,8 @@
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1806,8 +1808,8 @@
       <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="16">
+      <c r="A47" s="16"/>
+      <c r="B47" s="18">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1834,8 +1836,8 @@
       <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1860,8 +1862,8 @@
       <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1886,8 +1888,8 @@
       <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1912,8 +1914,8 @@
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="15">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17">
         <v>2017</v>
       </c>
       <c r="C51" s="4">
@@ -1940,8 +1942,8 @@
       <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1966,8 +1968,8 @@
       <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1992,8 +1994,8 @@
       <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2018,8 +2020,8 @@
       <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="16">
+      <c r="A55" s="16"/>
+      <c r="B55" s="18">
         <v>2018</v>
       </c>
       <c r="C55" s="2">
@@ -2046,8 +2048,8 @@
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2072,8 +2074,8 @@
       <c r="M56" s="13"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2098,8 +2100,8 @@
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2124,8 +2126,8 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17">
         <v>2019</v>
       </c>
       <c r="C59" s="4">
@@ -2152,8 +2154,8 @@
       <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2179,6 +2181,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A60"/>
     <mergeCell ref="B15:B19"/>
@@ -2192,11 +2199,6 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D4F732-E5FD-D742-920C-D976D91801BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42EC2A-79B9-9146-9D3F-5F05B3FCFC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -265,16 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +597,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,10 +648,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -673,8 +673,8 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -694,8 +694,8 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -716,10 +716,10 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -740,8 +740,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -762,8 +762,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -786,8 +786,8 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C60" si="0">C7+1</f>
         <v>7</v>
@@ -808,8 +808,8 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -830,10 +830,10 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -854,8 +854,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -876,8 +876,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -898,8 +898,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -920,8 +920,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -942,8 +942,8 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -966,8 +966,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -988,10 +988,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1012,8 +1012,8 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1034,8 +1034,8 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1056,8 +1056,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1084,10 +1084,10 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1112,8 +1112,8 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1138,8 +1138,8 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1164,8 +1164,8 @@
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1190,8 +1190,8 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1218,8 +1218,8 @@
       <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1244,8 +1244,8 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1272,8 +1272,8 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1300,8 +1300,8 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1322,12 +1322,14 @@
       <c r="K29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="3">
+        <v>40886</v>
+      </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1356,8 +1358,8 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1384,8 +1386,8 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1412,8 +1414,8 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1440,8 +1442,8 @@
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15">
         <v>2013</v>
       </c>
       <c r="C34" s="4">
@@ -1470,8 +1472,8 @@
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1498,8 +1500,8 @@
       <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1526,8 +1528,8 @@
       <c r="M36" s="14"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1554,8 +1556,8 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16">
         <v>2014</v>
       </c>
       <c r="C38" s="2">
@@ -1584,8 +1586,8 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1612,8 +1614,8 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1640,8 +1642,8 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1668,8 +1670,8 @@
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1696,8 +1698,8 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15">
         <v>2015</v>
       </c>
       <c r="C43" s="4">
@@ -1726,8 +1728,8 @@
       <c r="M43" s="14"/>
     </row>
     <row r="44" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1754,8 +1756,8 @@
       <c r="M44" s="14"/>
     </row>
     <row r="45" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1782,8 +1784,8 @@
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1808,8 +1810,8 @@
       <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16">
         <v>2016</v>
       </c>
       <c r="C47" s="2">
@@ -1836,8 +1838,8 @@
       <c r="M47" s="13"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1862,8 +1864,8 @@
       <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1888,8 +1890,8 @@
       <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1914,8 +1916,8 @@
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17">
+      <c r="A51" s="17"/>
+      <c r="B51" s="15">
         <v>2017</v>
       </c>
       <c r="C51" s="4">
@@ -1942,8 +1944,8 @@
       <c r="M51" s="14"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1968,8 +1970,8 @@
       <c r="M52" s="14"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1994,8 +1996,8 @@
       <c r="M53" s="14"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2020,8 +2022,8 @@
       <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18">
+      <c r="A55" s="17"/>
+      <c r="B55" s="16">
         <v>2018</v>
       </c>
       <c r="C55" s="2">
@@ -2048,8 +2050,8 @@
       <c r="M55" s="13"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2074,8 +2076,8 @@
       <c r="M56" s="13"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2100,8 +2102,8 @@
       <c r="M57" s="13"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2126,8 +2128,8 @@
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17">
+      <c r="A59" s="17"/>
+      <c r="B59" s="15">
         <v>2019</v>
       </c>
       <c r="C59" s="4">
@@ -2154,8 +2156,8 @@
       <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2181,11 +2183,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A60"/>
     <mergeCell ref="B15:B19"/>
@@ -2199,6 +2196,11 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42EC2A-79B9-9146-9D3F-5F05B3FCFC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77233B69-1D75-FE4E-BD4C-E70DB60CFB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>--"--</t>
   </si>
   <si>
     <t>-</t>
@@ -594,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -789,7 +786,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="16"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C60" si="0">C7+1</f>
+        <f t="shared" ref="C8:C61" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="5">
@@ -1103,10 +1100,10 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1129,10 +1126,10 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -1155,7 +1152,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="5">
         <v>40457</v>
@@ -1181,7 +1178,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>11</v>
@@ -1238,7 +1235,7 @@
         <v>40641</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -1261,10 +1258,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="3">
         <v>40704</v>
@@ -1320,7 +1317,7 @@
         <v>40886</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="3">
         <v>40886</v>
@@ -1337,24 +1334,24 @@
         <v>29</v>
       </c>
       <c r="D30" s="5">
-        <v>40991</v>
-      </c>
-      <c r="E30" s="5">
-        <v>40991</v>
-      </c>
-      <c r="F30" s="5">
-        <v>40991</v>
-      </c>
+        <v>40910</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="L30" s="5">
+        <v>40910</v>
+      </c>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1365,24 +1362,26 @@
         <v>30</v>
       </c>
       <c r="D31" s="5">
-        <v>41089</v>
+        <v>40991</v>
       </c>
       <c r="E31" s="5">
-        <v>41089</v>
+        <v>40991</v>
       </c>
       <c r="F31" s="5">
-        <v>41089</v>
+        <v>40991</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5">
-        <v>41089</v>
+      <c r="J31" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="L31" s="5">
+        <v>40991</v>
+      </c>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1393,24 +1392,26 @@
         <v>31</v>
       </c>
       <c r="D32" s="5">
-        <v>41124</v>
+        <v>41089</v>
       </c>
       <c r="E32" s="5">
-        <v>41124</v>
+        <v>41089</v>
       </c>
       <c r="F32" s="5">
-        <v>41124</v>
+        <v>41089</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="13" t="s">
-        <v>12</v>
+      <c r="J32" s="5">
+        <v>41089</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1421,80 +1422,84 @@
         <v>32</v>
       </c>
       <c r="D33" s="5">
-        <v>41264</v>
+        <v>41124</v>
       </c>
       <c r="E33" s="5">
-        <v>41264</v>
+        <v>41124</v>
       </c>
       <c r="F33" s="5">
-        <v>41264</v>
+        <v>41124</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5">
-        <v>41264</v>
+      <c r="J33" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="L33" s="5">
+        <v>41124</v>
+      </c>
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="15">
-        <v>2013</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="16"/>
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D34" s="3">
-        <v>41376</v>
-      </c>
-      <c r="E34" s="3">
-        <v>41376</v>
-      </c>
-      <c r="F34" s="3">
-        <v>41376</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="D34" s="5">
+        <v>41264</v>
+      </c>
+      <c r="E34" s="5">
+        <v>41264</v>
+      </c>
+      <c r="F34" s="5">
+        <v>41264</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
+        <v>41264</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="5">
+        <v>41264</v>
+      </c>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>2013</v>
+      </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D35" s="3">
-        <v>41453</v>
+        <v>41376</v>
       </c>
       <c r="E35" s="3">
-        <v>41453</v>
+        <v>41376</v>
       </c>
       <c r="F35" s="3">
-        <v>41453</v>
+        <v>41376</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3">
-        <v>41453</v>
+      <c r="J35" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
@@ -1507,22 +1512,22 @@
         <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>41551</v>
+        <v>41453</v>
       </c>
       <c r="E36" s="3">
-        <v>41551</v>
+        <v>41453</v>
       </c>
       <c r="F36" s="3">
-        <v>41551</v>
+        <v>41453</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3">
-        <v>41551</v>
+        <v>41453</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -1535,85 +1540,85 @@
         <v>36</v>
       </c>
       <c r="D37" s="3">
-        <v>41628</v>
+        <v>41551</v>
       </c>
       <c r="E37" s="3">
-        <v>41628</v>
+        <v>41551</v>
       </c>
       <c r="F37" s="3">
-        <v>41628</v>
+        <v>41551</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3">
-        <v>41628</v>
+        <v>41551</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="16">
+      <c r="B38" s="15"/>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>41628</v>
+      </c>
+      <c r="E38" s="3">
+        <v>41628</v>
+      </c>
+      <c r="F38" s="3">
+        <v>41628</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>41628</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="16">
         <v>2014</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="5">
         <v>41726</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>41726</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>41726</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5">
-        <v>41726</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D39" s="5">
-        <v>41817</v>
-      </c>
-      <c r="E39" s="5">
-        <v>41817</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5">
-        <v>41817</v>
-      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="13" t="s">
-        <v>12</v>
+      <c r="J39" s="5">
+        <v>41726</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="16"/>
       <c r="C40" s="2">
@@ -1621,27 +1626,27 @@
         <v>39</v>
       </c>
       <c r="D40" s="5">
-        <v>41908</v>
+        <v>41817</v>
       </c>
       <c r="E40" s="5">
-        <v>41908</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="10">
-        <v>41908</v>
+        <v>41817</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="5">
+        <v>41817</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5">
-        <v>41908</v>
-      </c>
-      <c r="K40" s="5">
-        <v>41908</v>
+      <c r="J40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="16"/>
       <c r="C41" s="2">
@@ -1649,27 +1654,27 @@
         <v>40</v>
       </c>
       <c r="D41" s="5">
-        <v>41918</v>
+        <v>41908</v>
       </c>
       <c r="E41" s="5">
-        <v>41918</v>
+        <v>41908</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
+      <c r="G41" s="10">
+        <v>41908</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>12</v>
+      <c r="J41" s="5">
+        <v>41908</v>
+      </c>
+      <c r="K41" s="5">
+        <v>41908</v>
       </c>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="2">
@@ -1677,85 +1682,85 @@
         <v>41</v>
       </c>
       <c r="D42" s="5">
-        <v>41992</v>
+        <v>41918</v>
       </c>
       <c r="E42" s="5">
-        <v>41992</v>
+        <v>41918</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="5">
-        <v>41992</v>
-      </c>
+      <c r="G42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
-      <c r="B43" s="15">
+      <c r="B43" s="16"/>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D43" s="5">
+        <v>41992</v>
+      </c>
+      <c r="E43" s="5">
+        <v>41992</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5">
+        <v>41992</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15">
         <v>2015</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
         <v>42090</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>42090</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="11">
-        <v>42090</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
-        <v>42090</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
-        <v>42181</v>
-      </c>
-      <c r="E44" s="3">
-        <v>42181</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="3">
-        <v>42181</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>12</v>
+      <c r="H44" s="11">
+        <v>42090</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>42090</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="15"/>
       <c r="C45" s="4">
@@ -1763,27 +1768,27 @@
         <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>42272</v>
+        <v>42181</v>
       </c>
       <c r="E45" s="3">
-        <v>42272</v>
+        <v>42181</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="11">
-        <v>42272</v>
+      <c r="H45" s="12"/>
+      <c r="I45" s="3">
+        <v>42181</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
       <c r="C46" s="4">
@@ -1791,74 +1796,76 @@
         <v>45</v>
       </c>
       <c r="D46" s="3">
-        <v>42356</v>
+        <v>42272</v>
       </c>
       <c r="E46" s="3">
-        <v>42356</v>
+        <v>42272</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="11">
+        <v>42272</v>
+      </c>
       <c r="J46" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3">
-        <v>42356</v>
+        <v>11</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
-      <c r="B47" s="16">
-        <v>2016</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" s="15"/>
+      <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D47" s="5">
-        <v>42454</v>
-      </c>
-      <c r="E47" s="5">
-        <v>42454</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5">
-        <v>42454</v>
-      </c>
-      <c r="K47" s="5">
-        <v>42454</v>
-      </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="D47" s="3">
+        <v>42356</v>
+      </c>
+      <c r="E47" s="3">
+        <v>42356</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="3">
+        <v>42356</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="16">
+        <v>2016</v>
+      </c>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D48" s="5">
-        <v>42545</v>
+        <v>42454</v>
       </c>
       <c r="E48" s="5">
-        <v>42545</v>
+        <v>42454</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>12</v>
+      <c r="J48" s="5">
+        <v>42454</v>
+      </c>
+      <c r="K48" s="5">
+        <v>42454</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -1871,20 +1878,20 @@
         <v>48</v>
       </c>
       <c r="D49" s="5">
-        <v>42643</v>
+        <v>42545</v>
       </c>
       <c r="E49" s="5">
-        <v>42643</v>
+        <v>42545</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5">
-        <v>42643</v>
-      </c>
-      <c r="K49" s="5">
-        <v>42643</v>
+      <c r="J49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -1897,74 +1904,74 @@
         <v>49</v>
       </c>
       <c r="D50" s="5">
-        <v>42720</v>
+        <v>42643</v>
       </c>
       <c r="E50" s="5">
-        <v>42720</v>
+        <v>42643</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5">
-        <v>42720</v>
+        <v>42643</v>
       </c>
       <c r="K50" s="5">
-        <v>42720</v>
+        <v>42643</v>
       </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
-      <c r="B51" s="15">
-        <v>2017</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="16"/>
+      <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D51" s="3">
-        <v>42825</v>
-      </c>
-      <c r="E51" s="3">
-        <v>42825</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="3">
-        <v>42825</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
+      <c r="D51" s="5">
+        <v>42720</v>
+      </c>
+      <c r="E51" s="5">
+        <v>42720</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
+        <v>42720</v>
+      </c>
+      <c r="K51" s="5">
+        <v>42720</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>2017</v>
+      </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D52" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="E52" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K52" s="3">
+        <v>42825</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -1977,20 +1984,20 @@
         <v>52</v>
       </c>
       <c r="D53" s="3">
-        <v>43007</v>
+        <v>42916</v>
       </c>
       <c r="E53" s="3">
-        <v>43007</v>
+        <v>42916</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3">
-        <v>43007</v>
-      </c>
-      <c r="K53" s="3">
-        <v>43007</v>
+      <c r="J53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -2003,74 +2010,74 @@
         <v>53</v>
       </c>
       <c r="D54" s="3">
-        <v>43091</v>
+        <v>43007</v>
       </c>
       <c r="E54" s="3">
-        <v>43091</v>
+        <v>43007</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>12</v>
+      <c r="J54" s="3">
+        <v>43007</v>
+      </c>
+      <c r="K54" s="3">
+        <v>43007</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
-      <c r="B55" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="B55" s="15"/>
+      <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D55" s="5">
-        <v>43189</v>
-      </c>
-      <c r="E55" s="5">
-        <v>43189</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5">
-        <v>43189</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
+      <c r="D55" s="3">
+        <v>43091</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="16">
+        <v>2018</v>
+      </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D56" s="5">
-        <v>43280</v>
+        <v>43189</v>
       </c>
       <c r="E56" s="5">
-        <v>43280</v>
+        <v>43189</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5">
-        <v>43280</v>
+        <v>43189</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -2083,20 +2090,20 @@
         <v>56</v>
       </c>
       <c r="D57" s="5">
-        <v>43371</v>
+        <v>43280</v>
       </c>
       <c r="E57" s="5">
-        <v>43371</v>
+        <v>43280</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5">
-        <v>43371</v>
+        <v>43280</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -2109,93 +2116,119 @@
         <v>57</v>
       </c>
       <c r="D58" s="5">
-        <v>43455</v>
+        <v>43371</v>
       </c>
       <c r="E58" s="5">
-        <v>43455</v>
+        <v>43371</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5">
-        <v>43455</v>
-      </c>
-      <c r="K58" s="5">
-        <v>43455</v>
+        <v>43371</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
-      <c r="B59" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="16"/>
+      <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D59" s="3">
-        <v>43553</v>
-      </c>
-      <c r="E59" s="3">
-        <v>43553</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3">
-        <v>43553</v>
-      </c>
-      <c r="K59" s="3">
-        <v>43553</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
+      <c r="D59" s="5">
+        <v>43455</v>
+      </c>
+      <c r="E59" s="5">
+        <v>43455</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
+        <v>43455</v>
+      </c>
+      <c r="K59" s="5">
+        <v>43455</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="15">
+        <v>2019</v>
+      </c>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="D60" s="3">
-        <v>43644</v>
+        <v>43553</v>
       </c>
       <c r="E60" s="3">
-        <v>43644</v>
+        <v>43553</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
-        <v>43644</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>12</v>
+        <v>43553</v>
+      </c>
+      <c r="K60" s="3">
+        <v>43553</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D61" s="3">
+        <v>43644</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43644</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
+        <v>43644</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A60"/>
+    <mergeCell ref="A21:A61"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="A2:A4"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77233B69-1D75-FE4E-BD4C-E70DB60CFB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCDB2A5-C823-444A-8E9C-A278E826DE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -74,12 +74,15 @@
   <si>
     <t>Protocol</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +100,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,24 +212,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,12 +245,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +252,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +268,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,16 +595,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="13" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -645,10 +651,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -657,8 +663,8 @@
       <c r="D2" s="3">
         <v>39147</v>
       </c>
-      <c r="E2" s="3">
-        <v>39147</v>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -670,16 +676,16 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>39192</v>
       </c>
-      <c r="E3" s="3">
-        <v>39192</v>
+      <c r="E3" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -691,8 +697,8 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -700,8 +706,8 @@
       <c r="D4" s="3">
         <v>39198</v>
       </c>
-      <c r="E4" s="3">
-        <v>39198</v>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -713,10 +719,10 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -724,8 +730,8 @@
       <c r="D5" s="3">
         <v>39233</v>
       </c>
-      <c r="E5" s="3">
-        <v>39233</v>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -737,8 +743,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -746,8 +752,8 @@
       <c r="D6" s="3">
         <v>39238</v>
       </c>
-      <c r="E6" s="3">
-        <v>39238</v>
+      <c r="E6" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -759,8 +765,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16">
+      <c r="A7" s="17"/>
+      <c r="B7" s="15">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -770,8 +776,8 @@
       <c r="D7" s="5">
         <v>39462</v>
       </c>
-      <c r="E7" s="5">
-        <v>39462</v>
+      <c r="E7" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -783,17 +789,17 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C61" si="0">C7+1</f>
+        <f t="shared" ref="C8:C62" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>39472</v>
       </c>
-      <c r="E8" s="5">
-        <v>39472</v>
+      <c r="E8" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -805,8 +811,8 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -814,8 +820,8 @@
       <c r="D9" s="5">
         <v>39686</v>
       </c>
-      <c r="E9" s="5">
-        <v>39686</v>
+      <c r="E9" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -827,10 +833,10 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -838,8 +844,8 @@
       <c r="D10" s="5">
         <v>39713</v>
       </c>
-      <c r="E10" s="5">
-        <v>39713</v>
+      <c r="E10" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -851,8 +857,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -860,8 +866,8 @@
       <c r="D11" s="5">
         <v>39715</v>
       </c>
-      <c r="E11" s="5">
-        <v>39715</v>
+      <c r="E11" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -873,8 +879,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -882,8 +888,8 @@
       <c r="D12" s="5">
         <v>39721</v>
       </c>
-      <c r="E12" s="5">
-        <v>39721</v>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -895,8 +901,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -904,8 +910,8 @@
       <c r="D13" s="5">
         <v>39730</v>
       </c>
-      <c r="E13" s="5">
-        <v>39730</v>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -917,8 +923,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -926,8 +932,8 @@
       <c r="D14" s="5">
         <v>39736</v>
       </c>
-      <c r="E14" s="5">
-        <v>39736</v>
+      <c r="E14" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -939,8 +945,8 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -950,8 +956,8 @@
       <c r="D15" s="3">
         <v>39861</v>
       </c>
-      <c r="E15" s="3">
-        <v>39861</v>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -963,8 +969,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -972,8 +978,8 @@
       <c r="D16" s="3">
         <v>39862</v>
       </c>
-      <c r="E16" s="3">
-        <v>39862</v>
+      <c r="E16" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -985,10 +991,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>4</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -996,8 +1002,8 @@
       <c r="D17" s="3">
         <v>39934</v>
       </c>
-      <c r="E17" s="3">
-        <v>39934</v>
+      <c r="E17" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1009,8 +1015,8 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1018,8 +1024,8 @@
       <c r="D18" s="3">
         <v>40000</v>
       </c>
-      <c r="E18" s="3">
-        <v>40000</v>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1031,8 +1037,8 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1040,8 +1046,8 @@
       <c r="D19" s="3">
         <v>40092</v>
       </c>
-      <c r="E19" s="3">
-        <v>40092</v>
+      <c r="E19" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1053,8 +1059,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16">
+      <c r="A20" s="17"/>
+      <c r="B20" s="15">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1064,27 +1070,27 @@
       <c r="D20" s="5">
         <v>40242</v>
       </c>
-      <c r="E20" s="5">
-        <v>40242</v>
+      <c r="E20" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5">
-        <v>40242</v>
-      </c>
-      <c r="K20" s="5">
-        <v>40242</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="J20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>5</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1092,25 +1098,25 @@
       <c r="D21" s="5">
         <v>40276</v>
       </c>
-      <c r="E21" s="5">
-        <v>40276</v>
+      <c r="E21" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="J21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1118,25 +1124,25 @@
       <c r="D22" s="5">
         <v>40361</v>
       </c>
-      <c r="E22" s="5">
-        <v>40361</v>
+      <c r="E22" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="J22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1144,25 +1150,25 @@
       <c r="D23" s="5">
         <v>40457</v>
       </c>
-      <c r="E23" s="5">
-        <v>40457</v>
+      <c r="E23" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="5">
-        <v>40457</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="J23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1170,25 +1176,25 @@
       <c r="D24" s="5">
         <v>40473</v>
       </c>
-      <c r="E24" s="5">
-        <v>40473</v>
+      <c r="E24" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="J24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1198,25 +1204,25 @@
       <c r="D25" s="3">
         <v>40550</v>
       </c>
-      <c r="E25" s="3">
-        <v>40550</v>
+      <c r="E25" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <v>40550</v>
-      </c>
-      <c r="K25" s="3">
-        <v>40550</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="J25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1224,25 +1230,25 @@
       <c r="D26" s="3">
         <v>40641</v>
       </c>
-      <c r="E26" s="3">
-        <v>40641</v>
+      <c r="E26" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <v>40641</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="J26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1250,27 +1256,27 @@
       <c r="D27" s="3">
         <v>40704</v>
       </c>
-      <c r="E27" s="3">
-        <v>40704</v>
+      <c r="E27" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="3">
-        <v>40704</v>
-      </c>
-      <c r="M27" s="14"/>
+      <c r="J27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1278,27 +1284,27 @@
       <c r="D28" s="3">
         <v>40746</v>
       </c>
-      <c r="E28" s="3">
-        <v>40746</v>
+      <c r="E28" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>40746</v>
-      </c>
-      <c r="K28" s="3">
-        <v>40746</v>
-      </c>
-      <c r="L28" s="3">
-        <v>40746</v>
-      </c>
-      <c r="M28" s="14"/>
+      <c r="J28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1306,27 +1312,27 @@
       <c r="D29" s="3">
         <v>40886</v>
       </c>
-      <c r="E29" s="3">
-        <v>40886</v>
+      <c r="E29" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3">
-        <v>40886</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="3">
-        <v>40886</v>
-      </c>
-      <c r="M29" s="14"/>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1336,27 +1342,27 @@
       <c r="D30" s="5">
         <v>40910</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="5">
-        <v>40910</v>
-      </c>
-      <c r="M30" s="13"/>
+      <c r="J30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1364,29 +1370,29 @@
       <c r="D31" s="5">
         <v>40991</v>
       </c>
-      <c r="E31" s="5">
-        <v>40991</v>
-      </c>
-      <c r="F31" s="5">
-        <v>40991</v>
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="5">
-        <v>40991</v>
-      </c>
-      <c r="M31" s="13"/>
+      <c r="J31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1394,29 +1400,29 @@
       <c r="D32" s="5">
         <v>41089</v>
       </c>
-      <c r="E32" s="5">
-        <v>41089</v>
-      </c>
-      <c r="F32" s="5">
-        <v>41089</v>
+      <c r="E32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5">
-        <v>41089</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="13"/>
+      <c r="J32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1424,29 +1430,29 @@
       <c r="D33" s="5">
         <v>41124</v>
       </c>
-      <c r="E33" s="5">
-        <v>41124</v>
-      </c>
-      <c r="F33" s="5">
-        <v>41124</v>
+      <c r="E33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="5">
-        <v>41124</v>
-      </c>
-      <c r="M33" s="13"/>
+      <c r="J33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1454,29 +1460,29 @@
       <c r="D34" s="5">
         <v>41264</v>
       </c>
-      <c r="E34" s="5">
-        <v>41264</v>
-      </c>
-      <c r="F34" s="5">
-        <v>41264</v>
+      <c r="E34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5">
-        <v>41264</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="5">
-        <v>41264</v>
-      </c>
-      <c r="M34" s="13"/>
+      <c r="J34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1486,27 +1492,29 @@
       <c r="D35" s="3">
         <v>41376</v>
       </c>
-      <c r="E35" s="3">
-        <v>41376</v>
-      </c>
-      <c r="F35" s="3">
-        <v>41376</v>
+      <c r="E35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="J35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1514,27 +1522,29 @@
       <c r="D36" s="3">
         <v>41453</v>
       </c>
-      <c r="E36" s="3">
-        <v>41453</v>
-      </c>
-      <c r="F36" s="3">
-        <v>41453</v>
+      <c r="E36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3">
-        <v>41453</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="J36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1542,27 +1552,29 @@
       <c r="D37" s="3">
         <v>41551</v>
       </c>
-      <c r="E37" s="3">
-        <v>41551</v>
-      </c>
-      <c r="F37" s="3">
-        <v>41551</v>
+      <c r="E37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3">
-        <v>41551</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="J37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1570,27 +1582,29 @@
       <c r="D38" s="3">
         <v>41628</v>
       </c>
-      <c r="E38" s="3">
-        <v>41628</v>
-      </c>
-      <c r="F38" s="3">
-        <v>41628</v>
+      <c r="E38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3">
-        <v>41628</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="J38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1600,27 +1614,29 @@
       <c r="D39" s="5">
         <v>41726</v>
       </c>
-      <c r="E39" s="5">
-        <v>41726</v>
-      </c>
-      <c r="F39" s="9">
-        <v>41726</v>
+      <c r="E39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5">
-        <v>41726</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
+      <c r="J39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1628,27 +1644,29 @@
       <c r="D40" s="5">
         <v>41817</v>
       </c>
-      <c r="E40" s="5">
-        <v>41817</v>
+      <c r="E40" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="5">
-        <v>41817</v>
+      <c r="G40" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
+      <c r="J40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1656,27 +1674,29 @@
       <c r="D41" s="5">
         <v>41908</v>
       </c>
-      <c r="E41" s="5">
-        <v>41908</v>
+      <c r="E41" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="10">
-        <v>41908</v>
+      <c r="G41" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5">
-        <v>41908</v>
-      </c>
-      <c r="K41" s="5">
-        <v>41908</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
+      <c r="J41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1684,8 +1704,8 @@
       <c r="D42" s="5">
         <v>41918</v>
       </c>
-      <c r="E42" s="5">
-        <v>41918</v>
+      <c r="E42" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="9" t="s">
@@ -1693,18 +1713,20 @@
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
+      <c r="J42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1712,27 +1734,29 @@
       <c r="D43" s="5">
         <v>41992</v>
       </c>
-      <c r="E43" s="5">
-        <v>41992</v>
+      <c r="E43" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="5">
-        <v>41992</v>
+      <c r="H43" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
+      <c r="J43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1742,27 +1766,29 @@
       <c r="D44" s="3">
         <v>42090</v>
       </c>
-      <c r="E44" s="3">
-        <v>42090</v>
+      <c r="E44" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="11">
-        <v>42090</v>
+      <c r="H44" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="3">
-        <v>42090</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="J44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1770,27 +1796,29 @@
       <c r="D45" s="3">
         <v>42181</v>
       </c>
-      <c r="E45" s="3">
-        <v>42181</v>
+      <c r="E45" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="3">
-        <v>42181</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1798,27 +1826,29 @@
       <c r="D46" s="3">
         <v>42272</v>
       </c>
-      <c r="E46" s="3">
-        <v>42272</v>
+      <c r="E46" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="11">
-        <v>42272</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="I46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1826,25 +1856,27 @@
       <c r="D47" s="3">
         <v>42356</v>
       </c>
-      <c r="E47" s="3">
-        <v>42356</v>
+      <c r="E47" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="3">
-        <v>42356</v>
-      </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="16">
+      <c r="A48" s="16"/>
+      <c r="B48" s="15">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -1854,25 +1886,27 @@
       <c r="D48" s="5">
         <v>42454</v>
       </c>
-      <c r="E48" s="5">
-        <v>42454</v>
+      <c r="E48" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5">
-        <v>42454</v>
-      </c>
-      <c r="K48" s="5">
-        <v>42454</v>
-      </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
+      <c r="J48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1880,25 +1914,27 @@
       <c r="D49" s="5">
         <v>42545</v>
       </c>
-      <c r="E49" s="5">
-        <v>42545</v>
+      <c r="E49" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="J49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1906,25 +1942,27 @@
       <c r="D50" s="5">
         <v>42643</v>
       </c>
-      <c r="E50" s="5">
-        <v>42643</v>
+      <c r="E50" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5">
-        <v>42643</v>
-      </c>
-      <c r="K50" s="5">
-        <v>42643</v>
-      </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+      <c r="J50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="11"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1932,25 +1970,27 @@
       <c r="D51" s="5">
         <v>42720</v>
       </c>
-      <c r="E51" s="5">
-        <v>42720</v>
+      <c r="E51" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5">
-        <v>42720</v>
-      </c>
-      <c r="K51" s="5">
-        <v>42720</v>
-      </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+      <c r="J51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="14">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -1960,25 +2000,29 @@
       <c r="D52" s="3">
         <v>42825</v>
       </c>
-      <c r="E52" s="3">
-        <v>42825</v>
+      <c r="E52" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3">
-        <v>42825</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="J52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1986,25 +2030,29 @@
       <c r="D53" s="3">
         <v>42916</v>
       </c>
-      <c r="E53" s="3">
-        <v>42916</v>
+      <c r="E53" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
+      <c r="J53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2012,25 +2060,29 @@
       <c r="D54" s="3">
         <v>43007</v>
       </c>
-      <c r="E54" s="3">
-        <v>43007</v>
+      <c r="E54" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3">
-        <v>43007</v>
-      </c>
-      <c r="K54" s="3">
-        <v>43007</v>
-      </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
+      <c r="J54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2038,25 +2090,29 @@
       <c r="D55" s="3">
         <v>43091</v>
       </c>
-      <c r="E55" s="3">
-        <v>43091</v>
+      <c r="E55" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
+      <c r="J55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="16">
+      <c r="A56" s="16"/>
+      <c r="B56" s="15">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2066,25 +2122,29 @@
       <c r="D56" s="5">
         <v>43189</v>
       </c>
-      <c r="E56" s="5">
-        <v>43189</v>
+      <c r="E56" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5">
-        <v>43189</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="J56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2092,25 +2152,29 @@
       <c r="D57" s="5">
         <v>43280</v>
       </c>
-      <c r="E57" s="5">
-        <v>43280</v>
+      <c r="E57" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5">
-        <v>43280</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="J57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2118,25 +2182,29 @@
       <c r="D58" s="5">
         <v>43371</v>
       </c>
-      <c r="E58" s="5">
-        <v>43371</v>
+      <c r="E58" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5">
-        <v>43371</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="J58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2144,25 +2212,29 @@
       <c r="D59" s="5">
         <v>43455</v>
       </c>
-      <c r="E59" s="5">
-        <v>43455</v>
+      <c r="E59" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="5">
-        <v>43455</v>
-      </c>
-      <c r="K59" s="5">
-        <v>43455</v>
-      </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="J59" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="15">
+      <c r="A60" s="16"/>
+      <c r="B60" s="14">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2172,25 +2244,29 @@
       <c r="D60" s="3">
         <v>43553</v>
       </c>
-      <c r="E60" s="3">
-        <v>43553</v>
+      <c r="E60" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3">
-        <v>43553</v>
-      </c>
-      <c r="K60" s="3">
-        <v>43553</v>
-      </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
+      <c r="J60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2198,31 +2274,65 @@
       <c r="D61" s="3">
         <v>43644</v>
       </c>
-      <c r="E61" s="3">
-        <v>43644</v>
+      <c r="E61" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3">
-        <v>43644</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
+      <c r="J61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D62" s="3">
+        <v>43735</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A61"/>
+    <mergeCell ref="A21:A62"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B44:B47"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCDB2A5-C823-444A-8E9C-A278E826DE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F55A2-586E-384C-A876-126382FB959B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -257,18 +257,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,6 +265,18 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +597,7 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -651,10 +651,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="19">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -663,7 +663,7 @@
       <c r="D2" s="3">
         <v>39147</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4"/>
@@ -676,15 +676,15 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>39192</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="4"/>
@@ -697,8 +697,8 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -706,7 +706,7 @@
       <c r="D4" s="3">
         <v>39198</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4"/>
@@ -722,7 +722,7 @@
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -730,7 +730,7 @@
       <c r="D5" s="3">
         <v>39233</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -752,7 +752,7 @@
       <c r="D6" s="3">
         <v>39238</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
-      <c r="B7" s="15">
+      <c r="B7" s="20">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -776,7 +776,7 @@
       <c r="D7" s="5">
         <v>39462</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6"/>
@@ -790,7 +790,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C62" si="0">C7+1</f>
         <v>7</v>
@@ -798,7 +798,7 @@
       <c r="D8" s="5">
         <v>39472</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -820,7 +820,7 @@
       <c r="D9" s="5">
         <v>39686</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6"/>
@@ -833,10 +833,10 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -844,7 +844,7 @@
       <c r="D10" s="5">
         <v>39713</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6"/>
@@ -857,8 +857,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -866,7 +866,7 @@
       <c r="D11" s="5">
         <v>39715</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="6"/>
@@ -879,8 +879,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -888,7 +888,7 @@
       <c r="D12" s="5">
         <v>39721</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6"/>
@@ -901,8 +901,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -910,7 +910,7 @@
       <c r="D13" s="5">
         <v>39730</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6"/>
@@ -923,8 +923,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -932,7 +932,7 @@
       <c r="D14" s="5">
         <v>39736</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6"/>
@@ -945,8 +945,8 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -956,7 +956,7 @@
       <c r="D15" s="3">
         <v>39861</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="4"/>
@@ -969,8 +969,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -978,7 +978,7 @@
       <c r="D16" s="3">
         <v>39862</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="4"/>
@@ -994,7 +994,7 @@
       <c r="A17" s="17">
         <v>4</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1002,7 +1002,7 @@
       <c r="D17" s="3">
         <v>39934</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="4"/>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1024,7 +1024,7 @@
       <c r="D18" s="3">
         <v>40000</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="4"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1046,7 +1046,7 @@
       <c r="D19" s="3">
         <v>40092</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="4"/>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
-      <c r="B20" s="15">
+      <c r="B20" s="20">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1070,27 +1070,27 @@
       <c r="D20" s="5">
         <v>40242</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="19" t="s">
+      <c r="J20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1098,7 +1098,7 @@
       <c r="D21" s="5">
         <v>40276</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6"/>
@@ -1115,8 +1115,8 @@
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1124,7 +1124,7 @@
       <c r="D22" s="5">
         <v>40361</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6"/>
@@ -1141,8 +1141,8 @@
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1150,7 +1150,7 @@
       <c r="D23" s="5">
         <v>40457</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="6"/>
@@ -1160,15 +1160,15 @@
       <c r="J23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1176,7 +1176,7 @@
       <c r="D24" s="5">
         <v>40473</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="6"/>
@@ -1193,8 +1193,8 @@
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1204,25 +1204,25 @@
       <c r="D25" s="3">
         <v>40550</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="18" t="s">
+      <c r="J25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1230,25 +1230,25 @@
       <c r="D26" s="3">
         <v>40641</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1256,27 +1256,27 @@
       <c r="D27" s="3">
         <v>40704</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="18" t="s">
+      <c r="J27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1284,27 +1284,27 @@
       <c r="D28" s="3">
         <v>40746</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="18" t="s">
+      <c r="J28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1312,7 +1312,7 @@
       <c r="D29" s="3">
         <v>40886</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="4"/>
@@ -1325,14 +1325,14 @@
       <c r="K29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1355,14 +1355,14 @@
       <c r="K30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1370,10 +1370,10 @@
       <c r="D31" s="5">
         <v>40991</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="6"/>
@@ -1385,14 +1385,14 @@
       <c r="K31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1400,16 +1400,16 @@
       <c r="D32" s="5">
         <v>41089</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
@@ -1421,8 +1421,8 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1430,10 +1430,10 @@
       <c r="D33" s="5">
         <v>41124</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="6"/>
@@ -1445,14 +1445,14 @@
       <c r="K33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1460,29 +1460,29 @@
       <c r="D34" s="5">
         <v>41264</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1492,10 +1492,10 @@
       <c r="D35" s="3">
         <v>41376</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="4"/>
@@ -1507,14 +1507,14 @@
       <c r="K35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1522,29 +1522,29 @@
       <c r="D36" s="3">
         <v>41453</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="18" t="s">
+      <c r="E36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1552,29 +1552,29 @@
       <c r="D37" s="3">
         <v>41551</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1582,29 +1582,29 @@
       <c r="D38" s="3">
         <v>41628</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1614,29 +1614,29 @@
       <c r="D39" s="5">
         <v>41726</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="20" t="s">
+      <c r="E39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1644,11 +1644,11 @@
       <c r="D40" s="5">
         <v>41817</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="5"/>
@@ -1659,14 +1659,14 @@
       <c r="K40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1674,29 +1674,29 @@
       <c r="D41" s="5">
         <v>41908</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="19" t="s">
+      <c r="J41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1704,7 +1704,7 @@
       <c r="D42" s="5">
         <v>41918</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="6"/>
@@ -1725,8 +1725,8 @@
       <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1734,12 +1734,12 @@
       <c r="D43" s="5">
         <v>41992</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="5"/>
@@ -1749,14 +1749,14 @@
       <c r="K43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1766,29 +1766,29 @@
       <c r="D44" s="3">
         <v>42090</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1796,13 +1796,13 @@
       <c r="D45" s="3">
         <v>42181</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="14" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -1811,14 +1811,14 @@
       <c r="K45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1826,13 +1826,13 @@
       <c r="D46" s="3">
         <v>42272</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="12" t="s">
@@ -1841,14 +1841,14 @@
       <c r="K46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1856,7 +1856,7 @@
       <c r="D47" s="3">
         <v>42356</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="4"/>
@@ -1866,17 +1866,17 @@
       <c r="J47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="18" t="s">
+      <c r="K47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -1886,27 +1886,27 @@
       <c r="D48" s="5">
         <v>42454</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="19" t="s">
+      <c r="J48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1914,7 +1914,7 @@
       <c r="D49" s="5">
         <v>42545</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="6"/>
@@ -1927,14 +1927,14 @@
       <c r="K49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1942,27 +1942,27 @@
       <c r="D50" s="5">
         <v>42643</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="19" t="s">
+      <c r="J50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M50" s="11"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1970,27 +1970,27 @@
       <c r="D51" s="5">
         <v>42720</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="19" t="s">
+      <c r="J51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M51" s="11"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="14">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2000,7 +2000,7 @@
       <c r="D52" s="3">
         <v>42825</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="4"/>
@@ -2010,19 +2010,19 @@
       <c r="J52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="18" t="s">
+      <c r="K52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2030,7 +2030,7 @@
       <c r="D53" s="3">
         <v>42916</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="4"/>
@@ -2043,16 +2043,16 @@
       <c r="K53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="18" t="s">
+      <c r="L53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2060,29 +2060,29 @@
       <c r="D54" s="3">
         <v>43007</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="18" t="s">
+      <c r="J54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2090,7 +2090,7 @@
       <c r="D55" s="3">
         <v>43091</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="4"/>
@@ -2103,16 +2103,16 @@
       <c r="K55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="18" t="s">
+      <c r="L55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2122,29 +2122,29 @@
       <c r="D56" s="5">
         <v>43189</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="19" t="s">
+      <c r="L56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2152,29 +2152,29 @@
       <c r="D57" s="5">
         <v>43280</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="19" t="s">
+      <c r="L57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2182,29 +2182,29 @@
       <c r="D58" s="5">
         <v>43371</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="19" t="s">
+      <c r="L58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2212,20 +2212,20 @@
       <c r="D59" s="5">
         <v>43455</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="19" t="s">
+      <c r="J59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M59" s="11" t="s">
@@ -2233,8 +2233,8 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="14">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2244,29 +2244,29 @@
       <c r="D60" s="3">
         <v>43553</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="18" t="s">
+      <c r="J60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2274,29 +2274,29 @@
       <c r="D61" s="3">
         <v>43644</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="18" t="s">
+      <c r="J61" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="18" t="s">
+      <c r="L61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2304,7 +2304,7 @@
       <c r="D62" s="3">
         <v>43735</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="4"/>
@@ -2317,15 +2317,20 @@
       <c r="K62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="18" t="s">
+      <c r="L62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A62"/>
     <mergeCell ref="B15:B19"/>
@@ -2339,13 +2344,8 @@
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F55A2-586E-384C-A876-126382FB959B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF61BD7-3A76-C849-BA0F-3BCDDB84B03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -212,11 +212,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,16 +290,34 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +637,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,10 +693,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -676,8 +718,8 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -697,8 +739,8 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -719,10 +761,10 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -743,8 +785,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -765,8 +807,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -789,10 +831,10 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C62" si="0">C7+1</f>
+        <f t="shared" ref="C8:C63" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="5">
@@ -811,8 +853,8 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -833,10 +875,10 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -857,8 +899,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -879,8 +921,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -901,8 +943,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -923,8 +965,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -945,8 +987,8 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -969,8 +1011,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -991,10 +1033,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1015,8 +1057,8 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1037,8 +1079,8 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1059,8 +1101,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20">
+      <c r="A20" s="20"/>
+      <c r="B20" s="18">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1086,11 +1128,11 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1114,9 +1156,9 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1140,9 +1182,9 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1166,9 +1208,9 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1192,9 +1234,9 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="17">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1220,9 +1262,9 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1246,9 +1288,9 @@
       <c r="L26" s="14"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1274,9 +1316,9 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1302,9 +1344,9 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1330,9 +1372,9 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20">
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="18">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1360,9 +1402,9 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1390,9 +1432,9 @@
       </c>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1420,9 +1462,9 @@
       </c>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1450,9 +1492,9 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1480,9 +1522,9 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19">
+    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="17">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1512,9 +1554,9 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1542,9 +1584,9 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1572,9 +1614,9 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1602,9 +1644,9 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20">
+    <row r="39" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="18">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1634,9 +1676,9 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
+    <row r="40" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1664,9 +1706,9 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1694,9 +1736,9 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20"/>
+    <row r="42" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1724,9 +1766,9 @@
       </c>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
+    <row r="43" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1754,9 +1796,9 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19">
+    <row r="44" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="17">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1786,9 +1828,9 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
+    <row r="45" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1816,9 +1858,9 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
+    <row r="46" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1846,9 +1888,9 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
+    <row r="47" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1874,9 +1916,9 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20">
+    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="18">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -1904,9 +1946,9 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
+    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1932,9 +1974,9 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1960,9 +2002,9 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20"/>
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1988,9 +2030,9 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19">
+    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="17">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2020,9 +2062,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2050,9 +2092,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2080,9 +2122,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2110,9 +2152,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20">
+    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="18">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2142,9 +2184,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20"/>
+    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2172,9 +2214,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20"/>
+    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="25"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2202,9 +2244,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20"/>
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2232,9 +2274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19">
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="21">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2264,9 +2306,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2294,9 +2336,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2324,28 +2366,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D63" s="3">
+        <v>43819</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A62"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A21:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="89" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF61BD7-3A76-C849-BA0F-3BCDDB84B03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1479A-29C6-7349-BBC1-D08AE20BD6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Define-XML</t>
   </si>
 </sst>
 </file>
@@ -290,16 +293,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,13 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,9 +652,10 @@
     <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
     <col min="5" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -691,12 +695,15 @@
       <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -716,10 +723,11 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -737,10 +745,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -759,12 +768,13 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -783,10 +793,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -805,10 +816,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -829,10 +841,11 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C63" si="0">C7+1</f>
         <v>7</v>
@@ -851,10 +864,11 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -873,12 +887,13 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -897,10 +912,11 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -919,10 +935,11 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -941,10 +958,11 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -963,10 +981,11 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -985,10 +1004,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="18">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1009,10 +1029,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1031,12 +1052,13 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1055,10 +1077,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1077,10 +1100,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1099,10 +1123,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1127,12 +1152,13 @@
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1155,10 +1181,11 @@
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1181,10 +1208,11 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1207,10 +1235,11 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1233,10 +1262,11 @@
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17">
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1261,10 +1291,11 @@
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1287,10 +1318,11 @@
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1315,10 +1347,11 @@
         <v>14</v>
       </c>
       <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="17"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1343,10 +1376,11 @@
         <v>14</v>
       </c>
       <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="17"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1371,10 +1405,11 @@
         <v>14</v>
       </c>
       <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="18">
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1401,10 +1436,11 @@
         <v>14</v>
       </c>
       <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="18"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1431,10 +1467,11 @@
         <v>14</v>
       </c>
       <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="18"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1461,10 +1498,11 @@
         <v>11</v>
       </c>
       <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="18"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1491,10 +1529,11 @@
         <v>14</v>
       </c>
       <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="18"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1521,10 +1560,11 @@
         <v>14</v>
       </c>
       <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17">
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1553,10 +1593,11 @@
         <v>14</v>
       </c>
       <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1583,10 +1624,11 @@
         <v>14</v>
       </c>
       <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1613,10 +1655,11 @@
         <v>14</v>
       </c>
       <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="17"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1643,10 +1686,11 @@
         <v>14</v>
       </c>
       <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="18">
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1675,10 +1719,11 @@
         <v>14</v>
       </c>
       <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="18"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1705,10 +1750,11 @@
         <v>14</v>
       </c>
       <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="18"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1735,10 +1781,11 @@
         <v>14</v>
       </c>
       <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="18"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1765,10 +1812,11 @@
         <v>11</v>
       </c>
       <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="18"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1795,10 +1843,11 @@
         <v>14</v>
       </c>
       <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="17">
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1827,10 +1876,11 @@
         <v>14</v>
       </c>
       <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="17"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1857,10 +1907,11 @@
         <v>14</v>
       </c>
       <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="17"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1887,10 +1938,11 @@
         <v>14</v>
       </c>
       <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="17"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1915,10 +1967,11 @@
         <v>14</v>
       </c>
       <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="18">
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="19">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -1945,10 +1998,11 @@
         <v>14</v>
       </c>
       <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="18"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1973,10 +2027,11 @@
         <v>14</v>
       </c>
       <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="18"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2001,10 +2056,11 @@
         <v>14</v>
       </c>
       <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="18"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2029,10 +2085,11 @@
         <v>14</v>
       </c>
       <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="17">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="18">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2061,10 +2118,11 @@
       <c r="M52" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="17"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2091,10 +2149,11 @@
       <c r="M53" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="17"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2121,10 +2180,11 @@
       <c r="M54" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="17"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2151,10 +2211,11 @@
       <c r="M55" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="18">
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="19">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2183,10 +2244,11 @@
       <c r="M56" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="18"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2213,10 +2275,11 @@
       <c r="M57" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="18"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2243,10 +2306,11 @@
       <c r="M58" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="18"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2273,10 +2337,11 @@
       <c r="M59" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="21">
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="23">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2305,10 +2370,11 @@
       <c r="M60" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2335,10 +2401,11 @@
       <c r="M61" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="22"/>
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2365,10 +2432,11 @@
       <c r="M62" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="23"/>
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2395,19 +2463,12 @@
       <c r="M63" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="N63" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="A21:A63"/>
     <mergeCell ref="B60:B63"/>
@@ -2416,6 +2477,16 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1479A-29C6-7349-BBC1-D08AE20BD6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F602F9-324F-1847-BD3A-EF5BC99C603C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Define-XML</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Pkg</t>
   </si>
 </sst>
 </file>
@@ -293,9 +299,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,22 +646,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="13" width="10" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -666,1451 +672,1535 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
         <v>39147</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="18"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <v>39192</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="18"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
         <v>39198</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>39233</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
         <v>39238</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2"/>
+      <c r="E7" s="5">
         <v>39462</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C63" si="0">C7+1</f>
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
         <v>39472</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2"/>
+      <c r="E9" s="5">
         <v>39686</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2"/>
+      <c r="E10" s="5">
         <v>39713</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="19"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
         <v>39715</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="19"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
         <v>39721</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
         <v>39730</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="19"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2"/>
+      <c r="E14" s="5">
         <v>39736</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="18">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="17">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
         <v>39861</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
         <v>39862</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>39934</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <v>40000</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
         <v>40092</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="18">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2"/>
+      <c r="E20" s="5">
         <v>40242</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
         <v>5</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2"/>
+      <c r="E21" s="5">
         <v>40276</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2"/>
+      <c r="E22" s="5">
         <v>40361</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2"/>
+      <c r="E23" s="5">
         <v>40457</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="11"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2"/>
+      <c r="E24" s="5">
         <v>40473</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18">
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
         <v>40550</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="3">
         <v>40641</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="12"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="14"/>
       <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
         <v>40704</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="3">
         <v>40746</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="3">
         <v>40886</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="12"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="18">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2"/>
+      <c r="E30" s="5">
         <v>40910</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2"/>
+      <c r="E31" s="5">
         <v>40991</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2"/>
+      <c r="E32" s="5">
         <v>41089</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>11</v>
+      <c r="J32" s="5"/>
+      <c r="K32" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2"/>
+      <c r="E33" s="5">
         <v>41124</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="F33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J33" s="5"/>
       <c r="K33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2"/>
+      <c r="E34" s="5">
         <v>41264</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="F34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="11"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18">
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="3">
         <v>41376</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="12"/>
+      <c r="L35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4"/>
+      <c r="E36" s="3">
         <v>41453</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="12"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="18"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4"/>
+      <c r="E37" s="3">
         <v>41551</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="12"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4"/>
+      <c r="E38" s="3">
         <v>41628</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="12"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19">
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2"/>
+      <c r="E39" s="5">
         <v>41726</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5"/>
+      <c r="F39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="11"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2"/>
+      <c r="E40" s="5">
         <v>41817</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="F40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J40" s="5"/>
       <c r="K40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="11"/>
+      <c r="L40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5">
         <v>41908</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="F41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J41" s="5"/>
       <c r="K41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="11"/>
+      <c r="M41" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5">
         <v>41918</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="5"/>
+      <c r="F42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="11"/>
+      <c r="L42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5">
         <v>41992</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="5"/>
       <c r="K43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18">
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
+        <f t="shared" ref="D44:D63" si="1">D43+1</f>
+        <v>21</v>
+      </c>
+      <c r="E44" s="3">
         <v>42090</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="12"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="18"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E45" s="3">
         <v>42181</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
+      <c r="H45" s="4"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="12"/>
+      <c r="L45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="18"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E46" s="3">
         <v>42272</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>11</v>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="12"/>
+      <c r="L46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
         <v>42356</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>14</v>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="12"/>
+      <c r="M47" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19">
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="18">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E48" s="5">
         <v>42454</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J48" s="5"/>
       <c r="K48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M48" s="11"/>
+      <c r="M48" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="19"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E49" s="5">
         <v>42545</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="J49" s="5"/>
       <c r="K49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="11"/>
+      <c r="L49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="19"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E50" s="5">
         <v>42643</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="5"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J50" s="5"/>
       <c r="K50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M50" s="11"/>
+      <c r="M50" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="19"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E51" s="5">
         <v>42720</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="6"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J51" s="5"/>
       <c r="K51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L51" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="11"/>
+      <c r="M51" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="18">
+      <c r="O51" s="11"/>
+    </row>
+    <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="17">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E52" s="3">
         <v>42825</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>14</v>
+      <c r="J52" s="3"/>
+      <c r="K52" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>14</v>
@@ -2118,59 +2208,67 @@
       <c r="M52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N52" s="14"/>
-    </row>
-    <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="18"/>
+      <c r="N52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E53" s="3">
         <v>42916</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="J53" s="3"/>
       <c r="K53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="14" t="s">
-        <v>14</v>
+      <c r="L53" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="M53" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N53" s="14"/>
-    </row>
-    <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="18"/>
+      <c r="N53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E54" s="3">
         <v>43007</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="14" t="s">
         <v>14</v>
       </c>
@@ -2180,187 +2278,211 @@
       <c r="M54" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N54" s="14"/>
-    </row>
-    <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="18"/>
+      <c r="N54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E55" s="3">
         <v>43091</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="J55" s="3"/>
       <c r="K55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="14" t="s">
-        <v>14</v>
+      <c r="L55" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="M55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N55" s="14"/>
-    </row>
-    <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="19">
+      <c r="N55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E56" s="5">
         <v>43189</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>14</v>
+      <c r="J56" s="5"/>
+      <c r="K56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="19"/>
+      <c r="N56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E57" s="5">
         <v>43280</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>14</v>
+      <c r="J57" s="5"/>
+      <c r="K57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M57" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N57" s="15"/>
-    </row>
-    <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="19"/>
+      <c r="N57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E58" s="5">
         <v>43371</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>14</v>
+      <c r="J58" s="5"/>
+      <c r="K58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="19"/>
+      <c r="N58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="15"/>
+    </row>
+    <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E59" s="5">
         <v>43455</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="J59" s="5"/>
       <c r="K59" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23">
+      <c r="M59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="11"/>
+    </row>
+    <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="22">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E60" s="3">
         <v>43553</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="J60" s="3"/>
       <c r="K60" s="14" t="s">
         <v>14</v>
       </c>
@@ -2370,90 +2492,102 @@
       <c r="M60" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N60" s="14"/>
-    </row>
-    <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
+      <c r="N60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E61" s="3">
         <v>43644</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>14</v>
+      <c r="J61" s="3"/>
+      <c r="K61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N61" s="14"/>
-    </row>
-    <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="24"/>
+      <c r="N61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E62" s="3">
         <v>43735</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="J62" s="3"/>
       <c r="K62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="14" t="s">
-        <v>14</v>
+      <c r="L62" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N62" s="14"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="25"/>
+      <c r="N62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E63" s="3">
         <v>43819</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="J63" s="3"/>
       <c r="K63" s="14" t="s">
         <v>14</v>
       </c>
@@ -2464,31 +2598,34 @@
         <v>14</v>
       </c>
       <c r="N63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" s="14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A21:A63"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A21:A63"/>
+    <mergeCell ref="B60:B63"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F602F9-324F-1847-BD3A-EF5BC99C603C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F3C64-F0C7-B74B-A684-B735A114C48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33920" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37540" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,17 +81,17 @@
     <t>Define-XML</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Pkg</t>
   </si>
   <si>
-    <t>Pkg</t>
+    <t>Not Av</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,8 +122,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +166,16 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -246,10 +270,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,12 +325,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,14 +355,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,13 +682,14 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="13" width="10" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
@@ -672,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
@@ -709,10 +744,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -736,8 +771,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -759,8 +794,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -783,10 +818,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -809,8 +844,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -833,8 +868,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -859,8 +894,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C63" si="0">C7+1</f>
         <v>7</v>
@@ -883,8 +918,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -907,10 +942,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -933,8 +968,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -957,8 +992,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -981,8 +1016,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1005,8 +1040,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1029,8 +1064,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1055,8 +1090,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1079,10 +1114,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="17">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1105,8 +1140,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1129,8 +1164,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1153,8 +1188,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="18">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1183,10 +1218,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1213,8 +1248,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1241,8 +1276,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1269,8 +1304,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1297,8 +1332,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17">
+      <c r="A25" s="22"/>
+      <c r="B25" s="18">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1327,8 +1362,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1355,8 +1390,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1385,8 +1420,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1415,8 +1450,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1445,8 +1480,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18">
+      <c r="A30" s="22"/>
+      <c r="B30" s="19">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1477,8 +1512,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1509,8 +1544,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1541,8 +1576,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1573,8 +1608,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1605,8 +1640,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17">
+      <c r="A35" s="22"/>
+      <c r="B35" s="18">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1639,8 +1674,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1671,8 +1706,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1703,8 +1738,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1735,8 +1770,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18">
+      <c r="A39" s="22"/>
+      <c r="B39" s="19">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1769,8 +1804,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1801,8 +1836,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1835,14 +1870,14 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
+      <c r="D42" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="E42" s="5">
         <v>41918</v>
@@ -1869,8 +1904,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1903,8 +1938,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17">
+      <c r="A44" s="22"/>
+      <c r="B44" s="18">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1940,8 +1975,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1975,8 +2010,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2010,8 +2045,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2043,8 +2078,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18">
+      <c r="A48" s="22"/>
+      <c r="B48" s="19">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2078,8 +2113,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2111,8 +2146,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2144,8 +2179,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2177,15 +2212,15 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="17">
+      <c r="A52" s="22"/>
+      <c r="B52" s="18">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -2214,8 +2249,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2249,13 +2284,13 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="27">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -2284,13 +2319,13 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="27">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -2319,8 +2354,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18">
+      <c r="A56" s="22"/>
+      <c r="B56" s="19">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2356,13 +2391,13 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="27">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -2391,8 +2426,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2426,13 +2461,13 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="27">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -2461,8 +2496,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22">
+      <c r="A60" s="22"/>
+      <c r="B60" s="24">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2498,8 +2533,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2533,8 +2568,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2568,8 +2603,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2606,14 +2641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B56:B59"/>
@@ -2624,8 +2651,16 @@
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F3C64-F0C7-B74B-A684-B735A114C48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC71ED-CC7C-5549-B7EC-CEB569823A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37540" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38980" yWindow="820" windowWidth="37540" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,41 +325,41 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,8 +682,8 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,10 +744,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -771,8 +771,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -794,8 +794,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -818,10 +818,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -844,8 +844,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -868,8 +868,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19">
+      <c r="A7" s="27"/>
+      <c r="B7" s="20">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -894,8 +894,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C63" si="0">C7+1</f>
         <v>7</v>
@@ -918,8 +918,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -942,10 +942,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -968,8 +968,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -992,8 +992,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1016,8 +1016,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1040,8 +1040,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1064,8 +1064,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1090,8 +1090,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1114,10 +1114,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="27">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1140,8 +1140,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1164,8 +1164,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1188,8 +1188,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19">
+      <c r="A20" s="27"/>
+      <c r="B20" s="20">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1221,7 +1221,7 @@
       <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="19">
+      <c r="B30" s="20">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1513,7 +1513,7 @@
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1805,7 +1805,7 @@
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1871,12 +1871,12 @@
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="5">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
-      <c r="B44" s="18">
+      <c r="B44" s="19">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1976,7 +1976,7 @@
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="19">
+      <c r="B48" s="20">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2114,7 +2114,7 @@
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2213,14 +2213,14 @@
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="18">
+      <c r="B52" s="19">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="17">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2285,12 +2285,12 @@
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="17">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -2320,12 +2320,12 @@
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="17">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -2355,14 +2355,14 @@
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="17">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -2392,12 +2392,12 @@
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="17">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2462,12 +2462,12 @@
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="17">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -2641,6 +2641,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B56:B59"/>
@@ -2651,14 +2659,6 @@
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC71ED-CC7C-5549-B7EC-CEB569823A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CC6A2-638D-CC4E-8BAF-F13268F56E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38980" yWindow="820" windowWidth="37540" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +87,9 @@
   </si>
   <si>
     <t>Not Av</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
   </si>
 </sst>
 </file>
@@ -275,7 +280,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,12 +336,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,10 +366,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +694,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,10 +759,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -771,8 +786,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -794,8 +809,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -818,10 +833,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -844,8 +859,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -868,8 +883,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="20">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -894,10 +909,10 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C63" si="0">C7+1</f>
+        <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
@@ -918,8 +933,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -942,10 +957,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -968,8 +983,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -992,8 +1007,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1016,8 +1031,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1040,8 +1055,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1064,8 +1079,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="19">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1090,8 +1105,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1114,10 +1129,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1140,8 +1155,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1164,8 +1179,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1188,8 +1203,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="20">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1218,10 +1233,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="23">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1248,8 +1263,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1276,8 +1291,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1304,8 +1319,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1332,8 +1347,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19">
+      <c r="A25" s="24"/>
+      <c r="B25" s="20">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1362,8 +1377,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1390,8 +1405,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1420,8 +1435,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1450,8 +1465,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1480,8 +1495,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="20">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1512,8 +1527,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1544,8 +1559,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1576,8 +1591,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1608,8 +1623,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1640,8 +1655,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="19">
+      <c r="A35" s="24"/>
+      <c r="B35" s="20">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1674,8 +1689,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1706,8 +1721,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1738,8 +1753,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1770,8 +1785,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="20">
+      <c r="A39" s="24"/>
+      <c r="B39" s="21">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1804,8 +1819,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1836,8 +1851,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1870,8 +1885,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1904,8 +1919,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1938,8 +1953,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19">
+      <c r="A44" s="24"/>
+      <c r="B44" s="20">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1947,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D63" si="1">D43+1</f>
+        <f t="shared" ref="D44:D66" si="1">D43+1</f>
         <v>21</v>
       </c>
       <c r="E44" s="3">
@@ -1975,8 +1990,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2010,8 +2025,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2045,8 +2060,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2078,8 +2093,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="20">
+      <c r="A48" s="24"/>
+      <c r="B48" s="21">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2113,8 +2128,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2146,8 +2161,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2179,8 +2194,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2212,8 +2227,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="19">
+      <c r="A52" s="24"/>
+      <c r="B52" s="20">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2249,8 +2264,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2284,8 +2299,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2319,8 +2334,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2354,8 +2369,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="20">
+      <c r="A56" s="24"/>
+      <c r="B56" s="21">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2391,8 +2406,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2426,8 +2441,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2461,8 +2476,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2496,8 +2511,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24">
+      <c r="A60" s="24"/>
+      <c r="B60" s="26">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2533,8 +2548,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2568,8 +2583,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2602,9 +2617,9 @@
       </c>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="26"/>
+    <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="24"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2639,8 +2654,120 @@
         <v>14</v>
       </c>
     </row>
+    <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="24"/>
+      <c r="B64" s="29">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E64" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="24"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="5">
+        <v>43959</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+    </row>
+    <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D66" s="2">
+        <v>42</v>
+      </c>
+      <c r="E66" s="5">
+        <v>44008</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A21:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
@@ -2649,16 +2776,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A21:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0CC6A2-638D-CC4E-8BAF-F13268F56E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245257D-4ACE-B64E-879A-344DFED9CFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38980" yWindow="820" windowWidth="37540" windowHeight="18740" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38740" yWindow="460" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -336,43 +336,43 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,9 +696,9 @@
   </sheetPr>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,10 +759,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="25">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -786,8 +786,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -809,8 +809,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -833,10 +833,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -859,8 +859,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -883,8 +883,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
+      <c r="A7" s="30"/>
+      <c r="B7" s="26">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -909,8 +909,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
@@ -933,8 +933,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -957,10 +957,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -983,8 +983,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1007,8 +1007,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1031,8 +1031,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1055,8 +1055,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1079,8 +1079,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20">
+      <c r="A15" s="31"/>
+      <c r="B15" s="25">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1105,8 +1105,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1129,10 +1129,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="30">
         <v>4</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1155,8 +1155,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1179,8 +1179,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1203,8 +1203,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21">
+      <c r="A20" s="30"/>
+      <c r="B20" s="26">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1233,10 +1233,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="19">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1263,8 +1263,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1291,8 +1291,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1319,8 +1319,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1347,8 +1347,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="20">
+      <c r="A25" s="20"/>
+      <c r="B25" s="25">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1377,8 +1377,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1405,8 +1405,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1435,8 +1435,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1465,8 +1465,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1495,8 +1495,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21">
+      <c r="A30" s="20"/>
+      <c r="B30" s="26">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1527,8 +1527,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1559,8 +1559,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1591,8 +1591,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1623,8 +1623,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1655,8 +1655,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="20">
+      <c r="A35" s="20"/>
+      <c r="B35" s="25">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1689,8 +1689,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1721,8 +1721,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1753,8 +1753,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1785,8 +1785,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21">
+      <c r="A39" s="20"/>
+      <c r="B39" s="26">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1819,8 +1819,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1851,8 +1851,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1885,8 +1885,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1919,8 +1919,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1953,8 +1953,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="20">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1962,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D66" si="1">D43+1</f>
+        <f t="shared" ref="D44:D64" si="1">D43+1</f>
         <v>21</v>
       </c>
       <c r="E44" s="3">
@@ -1990,8 +1990,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2025,8 +2025,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2060,8 +2060,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2093,8 +2093,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21">
+      <c r="A48" s="20"/>
+      <c r="B48" s="26">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2128,8 +2128,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2161,8 +2161,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2194,8 +2194,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2227,8 +2227,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="20">
+      <c r="A52" s="20"/>
+      <c r="B52" s="25">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2264,8 +2264,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2299,8 +2299,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2334,8 +2334,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2369,8 +2369,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21">
+      <c r="A56" s="20"/>
+      <c r="B56" s="26">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2406,8 +2406,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2441,8 +2441,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2476,8 +2476,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2511,8 +2511,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="26">
+      <c r="A60" s="20"/>
+      <c r="B60" s="27">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2548,8 +2548,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2583,8 +2583,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2618,8 +2618,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2655,8 +2655,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="29">
+      <c r="A64" s="20"/>
+      <c r="B64" s="22">
         <v>2020</v>
       </c>
       <c r="C64" s="4">
@@ -2677,7 +2677,9 @@
       <c r="H64" s="6"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="15"/>
+      <c r="K64" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="L64" s="15" t="s">
         <v>14</v>
       </c>
@@ -2692,8 +2694,8 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2714,16 +2716,22 @@
       <c r="K65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="15"/>
+      <c r="L65" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="M65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
+      <c r="N65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2741,7 +2749,9 @@
       <c r="H66" s="6"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="15"/>
+      <c r="K66" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="L66" s="15" t="s">
         <v>14</v>
       </c>
@@ -2757,6 +2767,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A21:A66"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B25:B29"/>
@@ -2768,14 +2786,6 @@
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F245257D-4ACE-B64E-879A-344DFED9CFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E234D-C9D5-0A4B-AB1F-40EFA51B5033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38740" yWindow="460" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -274,13 +274,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,13 +345,16 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,12 +366,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,10 +375,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,11 +700,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,10 +765,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -786,8 +792,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -809,8 +815,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -833,10 +839,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -859,8 +865,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -883,8 +889,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="26">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -909,10 +915,10 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C66" si="0">C7+1</f>
+        <f t="shared" ref="C8:C67" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
@@ -933,8 +939,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -957,10 +963,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -983,8 +989,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1007,8 +1013,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1031,8 +1037,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1055,8 +1061,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1079,8 +1085,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1105,8 +1111,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1129,10 +1135,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1155,8 +1161,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1179,8 +1185,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1203,8 +1209,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1233,10 +1239,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="A21" s="29">
         <v>5</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1263,8 +1269,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1291,8 +1297,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1319,8 +1325,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1347,8 +1353,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="20">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1377,8 +1383,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1405,8 +1411,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1435,8 +1441,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1465,8 +1471,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1495,8 +1501,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26">
+      <c r="A30" s="30"/>
+      <c r="B30" s="21">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1527,8 +1533,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1559,8 +1565,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1591,8 +1597,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1623,8 +1629,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1655,8 +1661,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="20">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1689,8 +1695,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1721,8 +1727,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1753,8 +1759,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1785,8 +1791,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26">
+      <c r="A39" s="30"/>
+      <c r="B39" s="21">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1819,8 +1825,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1851,8 +1857,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1885,8 +1891,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1919,8 +1925,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1953,8 +1959,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="20">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1990,8 +1996,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2025,8 +2031,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2060,8 +2066,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2093,8 +2099,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="26">
+      <c r="A48" s="30"/>
+      <c r="B48" s="21">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2128,8 +2134,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2161,8 +2167,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2194,8 +2200,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2227,8 +2233,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="20">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2264,8 +2270,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2299,8 +2305,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2334,8 +2340,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2369,8 +2375,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="26">
+      <c r="A56" s="30"/>
+      <c r="B56" s="21">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2406,8 +2412,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2441,8 +2447,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2476,8 +2482,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2511,8 +2517,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="27">
+      <c r="A60" s="30"/>
+      <c r="B60" s="26">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2548,8 +2554,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2583,8 +2589,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2618,8 +2624,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2655,8 +2661,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="22">
+      <c r="A64" s="30"/>
+      <c r="B64" s="23">
         <v>2020</v>
       </c>
       <c r="C64" s="4">
@@ -2694,8 +2700,8 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2730,7 +2736,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="24"/>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
@@ -2765,8 +2771,49 @@
         <v>14</v>
       </c>
     </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="4">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67" si="2">D66+1</f>
+        <v>43</v>
+      </c>
+      <c r="E67" s="5">
+        <v>44099</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A21:A67"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
@@ -2775,17 +2822,12 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A21:A66"/>
-    <mergeCell ref="B64:B66"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E234D-C9D5-0A4B-AB1F-40EFA51B5033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA78339-A6D9-B541-8D41-E474C39810DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38740" yWindow="460" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>COVID-19</t>
+  </si>
+  <si>
+    <t>FIX</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -274,22 +277,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,27 +339,27 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,10 +369,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,11 +697,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O67" sqref="O67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,10 +762,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -792,8 +789,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -815,8 +812,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -839,10 +836,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -865,8 +862,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -889,8 +886,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
+      <c r="A7" s="24"/>
+      <c r="B7" s="20">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -915,10 +912,10 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C67" si="0">C7+1</f>
+        <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
@@ -939,8 +936,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -963,10 +960,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -989,8 +986,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1013,8 +1010,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1037,8 +1034,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1061,8 +1058,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1085,8 +1082,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20">
+      <c r="A15" s="25"/>
+      <c r="B15" s="19">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1111,8 +1108,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1135,10 +1132,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="24">
         <v>4</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1161,8 +1158,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1185,8 +1182,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1209,8 +1206,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1242,7 +1239,7 @@
       <c r="A21" s="29">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1384,7 +1381,7 @@
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1534,7 +1531,7 @@
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1566,7 +1563,7 @@
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1696,7 +1693,7 @@
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1760,7 +1757,7 @@
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1826,7 +1823,7 @@
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1858,7 +1855,7 @@
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1892,7 +1889,7 @@
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1960,7 +1957,7 @@
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1997,7 +1994,7 @@
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2032,7 +2029,7 @@
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2135,7 +2132,7 @@
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2271,7 +2268,7 @@
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2341,7 +2338,7 @@
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2376,7 +2373,7 @@
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2413,7 +2410,7 @@
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
-      <c r="B57" s="21"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2448,7 +2445,7 @@
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
-      <c r="B58" s="21"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2662,7 +2659,7 @@
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
-      <c r="B64" s="23">
+      <c r="B64" s="21">
         <v>2020</v>
       </c>
       <c r="C64" s="4">
@@ -2701,7 +2698,7 @@
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
-      <c r="B65" s="24"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2737,7 +2734,7 @@
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
-      <c r="B66" s="24"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2771,14 +2768,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="4">
         <v>66</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67" si="2">D66+1</f>
         <v>43</v>
       </c>
       <c r="E67" s="5">
@@ -2807,13 +2803,43 @@
         <v>11</v>
       </c>
     </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="31"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="4">
+        <v>67</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="5">
+        <v>44141</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A21:A67"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
@@ -2822,6 +2848,11 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A21:A68"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B56:B59"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA78339-A6D9-B541-8D41-E474C39810DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FDA9FA-102B-FB4E-9905-CF7A54FAAE38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38740" yWindow="460" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,12 +339,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,10 +360,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,14 +378,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -697,11 +700,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,10 +765,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -789,8 +792,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -812,8 +815,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -836,10 +839,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -862,8 +865,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -886,8 +889,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="20">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -912,8 +915,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
@@ -936,8 +939,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -960,10 +963,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -986,8 +989,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1010,8 +1013,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1034,8 +1037,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1058,8 +1061,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1082,8 +1085,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1108,8 +1111,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1132,10 +1135,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1158,8 +1161,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1182,8 +1185,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1206,8 +1209,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="20">
+      <c r="A20" s="19"/>
+      <c r="B20" s="21">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1236,10 +1239,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="26">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1266,8 +1269,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1294,8 +1297,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1322,8 +1325,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1350,8 +1353,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="19">
+      <c r="A25" s="27"/>
+      <c r="B25" s="20">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1380,8 +1383,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1408,8 +1411,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1438,8 +1441,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1468,8 +1471,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1498,8 +1501,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="20">
+      <c r="A30" s="27"/>
+      <c r="B30" s="21">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1530,8 +1533,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1562,8 +1565,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1594,8 +1597,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1626,8 +1629,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1658,8 +1661,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="19">
+      <c r="A35" s="27"/>
+      <c r="B35" s="20">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1692,8 +1695,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1724,8 +1727,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1756,8 +1759,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1788,8 +1791,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20">
+      <c r="A39" s="27"/>
+      <c r="B39" s="21">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1822,8 +1825,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1854,8 +1857,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1888,8 +1891,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1922,8 +1925,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1956,8 +1959,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="19">
+      <c r="A44" s="27"/>
+      <c r="B44" s="20">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1993,8 +1996,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2028,8 +2031,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2063,8 +2066,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2096,8 +2099,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="20">
+      <c r="A48" s="27"/>
+      <c r="B48" s="21">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2131,8 +2134,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2164,8 +2167,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2197,8 +2200,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2230,8 +2233,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="19">
+      <c r="A52" s="27"/>
+      <c r="B52" s="20">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2267,8 +2270,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2302,8 +2305,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2337,8 +2340,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2372,8 +2375,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="20">
+      <c r="A56" s="27"/>
+      <c r="B56" s="21">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2409,8 +2412,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2444,8 +2447,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2479,8 +2482,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2514,8 +2517,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="26">
+      <c r="A60" s="27"/>
+      <c r="B60" s="29">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2551,8 +2554,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2586,8 +2589,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2621,8 +2624,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2658,8 +2661,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="21">
+      <c r="A64" s="27"/>
+      <c r="B64" s="23">
         <v>2020</v>
       </c>
       <c r="C64" s="4">
@@ -2697,8 +2700,8 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2733,8 +2736,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2769,8 +2772,8 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="4">
         <v>66</v>
       </c>
@@ -2803,9 +2806,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="23"/>
+    <row r="68" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="4">
         <v>67</v>
       </c>
@@ -2838,8 +2841,54 @@
         <v>14</v>
       </c>
     </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="4">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44</v>
+      </c>
+      <c r="E69" s="5">
+        <v>44183</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="A21:A69"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
@@ -2848,19 +2897,8 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A21:A68"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FDA9FA-102B-FB4E-9905-CF7A54FAAE38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C726455-F1FD-544A-8860-0AB75EA92DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="460" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="38740" yWindow="500" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +339,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,15 +366,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,9 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,11 +694,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,10 +759,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="22">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -792,8 +786,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -815,8 +809,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -839,10 +833,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -865,8 +859,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -889,8 +883,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21">
+      <c r="A7" s="21"/>
+      <c r="B7" s="23">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -915,8 +909,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
@@ -939,8 +933,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -963,10 +957,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -989,8 +983,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1013,8 +1007,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1037,8 +1031,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1061,8 +1055,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1085,8 +1079,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1111,8 +1105,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1135,10 +1129,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>4</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1161,8 +1155,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1185,8 +1179,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1209,8 +1203,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21">
+      <c r="A20" s="21"/>
+      <c r="B20" s="23">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1239,10 +1233,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1269,8 +1263,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1297,8 +1291,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1325,8 +1319,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1353,8 +1347,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1383,8 +1377,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1411,8 +1405,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1441,8 +1435,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1471,8 +1465,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1501,8 +1495,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="21">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1533,8 +1527,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1565,8 +1559,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1597,8 +1591,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1629,8 +1623,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1661,8 +1655,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="20">
+      <c r="A35" s="24"/>
+      <c r="B35" s="22">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1695,8 +1689,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1727,8 +1721,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1759,8 +1753,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1791,8 +1785,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="21">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1825,8 +1819,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1857,8 +1851,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1891,8 +1885,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1925,8 +1919,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1959,8 +1953,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="20">
+      <c r="A44" s="24"/>
+      <c r="B44" s="22">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1996,8 +1990,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2031,8 +2025,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2066,8 +2060,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2099,8 +2093,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="21">
+      <c r="A48" s="24"/>
+      <c r="B48" s="23">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2134,8 +2128,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2167,8 +2161,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2200,8 +2194,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2233,8 +2227,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="20">
+      <c r="A52" s="24"/>
+      <c r="B52" s="22">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2270,8 +2264,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2305,8 +2299,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2340,8 +2334,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2375,8 +2369,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="21">
+      <c r="A56" s="24"/>
+      <c r="B56" s="23">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2412,8 +2406,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2447,8 +2441,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2482,8 +2476,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2517,8 +2511,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="29">
+      <c r="A60" s="24"/>
+      <c r="B60" s="28">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2554,8 +2548,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2589,8 +2583,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2624,8 +2618,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2661,8 +2655,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="23">
+      <c r="A64" s="24"/>
+      <c r="B64" s="25">
         <v>2020</v>
       </c>
       <c r="C64" s="4">
@@ -2700,8 +2694,8 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2736,8 +2730,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2771,9 +2765,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="24"/>
+    <row r="67" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="24"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="4">
         <v>66</v>
       </c>
@@ -2806,9 +2800,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="24"/>
+    <row r="68" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="4">
         <v>67</v>
       </c>
@@ -2841,9 +2835,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="25"/>
+    <row r="69" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="4">
         <v>68</v>
       </c>
@@ -2863,7 +2857,7 @@
       <c r="K69" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="19" t="s">
         <v>11</v>
       </c>
       <c r="M69" s="15" t="s">
@@ -2873,19 +2867,48 @@
         <v>14</v>
       </c>
       <c r="O69" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="20">
+        <v>2021</v>
+      </c>
+      <c r="C70" s="4">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45</v>
+      </c>
+      <c r="E70" s="5">
+        <v>44281</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="A21:A69"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B56:B59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
@@ -2897,6 +2920,14 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A21:A70"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B56:B59"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/db/load/cdisc/ct/manifest/manifest.xlsx
+++ b/db/load/cdisc/ct/manifest/manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/manifest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C726455-F1FD-544A-8860-0AB75EA92DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E3127-54C4-774F-B717-79728E59849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="500" windowWidth="31860" windowHeight="20240" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{9967E9D5-2184-A141-8487-87E703E3E084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,18 +342,24 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,13 +372,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,11 +700,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,10 +765,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="23">
         <v>2007</v>
       </c>
       <c r="C2" s="4">
@@ -786,8 +792,8 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -809,8 +815,8 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4">
         <f>C3+1</f>
         <v>3</v>
@@ -833,10 +839,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4">
         <f>C4+1</f>
         <v>4</v>
@@ -859,8 +865,8 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4">
         <f>C5+1</f>
         <v>5</v>
@@ -883,8 +889,8 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24">
         <v>2008</v>
       </c>
       <c r="C7" s="2">
@@ -909,8 +915,8 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C66" si="0">C7+1</f>
         <v>7</v>
@@ -933,8 +939,8 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -957,10 +963,10 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -983,8 +989,8 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1007,8 +1013,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1031,8 +1037,8 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1055,8 +1061,8 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1079,8 +1085,8 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22">
+      <c r="A15" s="26"/>
+      <c r="B15" s="23">
         <v>2009</v>
       </c>
       <c r="C15" s="4">
@@ -1105,8 +1111,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1129,10 +1135,10 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1155,8 +1161,8 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1179,8 +1185,8 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1203,8 +1209,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24">
         <v>2010</v>
       </c>
       <c r="C20" s="2">
@@ -1233,10 +1239,10 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="A21" s="30">
         <v>5</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1263,8 +1269,8 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1291,8 +1297,8 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1319,8 +1325,8 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1347,8 +1353,8 @@
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22">
+      <c r="A25" s="31"/>
+      <c r="B25" s="23">
         <v>2011</v>
       </c>
       <c r="C25" s="4">
@@ -1377,8 +1383,8 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1405,8 +1411,8 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1435,8 +1441,8 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1465,8 +1471,8 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1495,8 +1501,8 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23">
+      <c r="A30" s="31"/>
+      <c r="B30" s="24">
         <v>2012</v>
       </c>
       <c r="C30" s="2">
@@ -1527,8 +1533,8 @@
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1559,8 +1565,8 @@
       <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1591,8 +1597,8 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1623,8 +1629,8 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1655,8 +1661,8 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22">
+      <c r="A35" s="31"/>
+      <c r="B35" s="23">
         <v>2013</v>
       </c>
       <c r="C35" s="4">
@@ -1689,8 +1695,8 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1721,8 +1727,8 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1753,8 +1759,8 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1785,8 +1791,8 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23">
+      <c r="A39" s="31"/>
+      <c r="B39" s="24">
         <v>2014</v>
       </c>
       <c r="C39" s="2">
@@ -1819,8 +1825,8 @@
       <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1851,8 +1857,8 @@
       <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1885,8 +1891,8 @@
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1919,8 +1925,8 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1953,8 +1959,8 @@
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22">
+      <c r="A44" s="31"/>
+      <c r="B44" s="23">
         <v>2015</v>
       </c>
       <c r="C44" s="4">
@@ -1990,8 +1996,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2025,8 +2031,8 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2060,8 +2066,8 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2093,8 +2099,8 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="23">
+      <c r="A48" s="31"/>
+      <c r="B48" s="24">
         <v>2016</v>
       </c>
       <c r="C48" s="2">
@@ -2128,8 +2134,8 @@
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2161,8 +2167,8 @@
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2194,8 +2200,8 @@
       <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2227,8 +2233,8 @@
       <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22">
+      <c r="A52" s="31"/>
+      <c r="B52" s="23">
         <v>2017</v>
       </c>
       <c r="C52" s="4">
@@ -2264,8 +2270,8 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2299,8 +2305,8 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2334,8 +2340,8 @@
       <c r="O54" s="14"/>
     </row>
     <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2369,8 +2375,8 @@
       <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23">
+      <c r="A56" s="31"/>
+      <c r="B56" s="24">
         <v>2018</v>
       </c>
       <c r="C56" s="2">
@@ -2406,8 +2412,8 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2441,8 +2447,8 @@
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2476,8 +2482,8 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2511,8 +2517,8 @@
       <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="28">
+      <c r="A60" s="31"/>
+      <c r="B60" s="20">
         <v>2019</v>
       </c>
       <c r="C60" s="4">
@@ -2548,8 +2554,8 @@
       <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2583,8 +2589,8 @@
       <c r="O61" s="14"/>
     </row>
     <row r="62" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2618,8 +2624,8 @@
       <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2655,11 +2661,11 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25">
+      <c r="A64" s="31"/>
+      <c r="B64" s="27">
         <v>2020</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -2694,9 +2700,9 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="4">
+      <c r="A65" s="31"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -2730,9 +2736,9 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="4">
+      <c r="A66" s="31"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -2766,9 +2772,9 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="4">
+      <c r="A67" s="31"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="2">
         <v>66</v>
       </c>
       <c r="D67" s="2">
@@ -2801,9 +2807,9 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="4">
+      <c r="A68" s="31"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="2">
         <v>67</v>
       </c>
       <c r="D68" s="18" t="s">
@@ -2836,9 +2842,9 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="4">
+      <c r="A69" s="31"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="2">
         <v>68</v>
       </c>
       <c r="D69" s="2">
@@ -2870,57 +2876,126 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+    <row r="70" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
       <c r="B70" s="20">
         <v>2021</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="4">
         <v>45</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="3">
         <v>44281</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N70" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O70" s="15" t="s">
+      <c r="F70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="31"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="4">
+        <v>70</v>
+      </c>
+      <c r="D71" s="4">
+        <v>46</v>
+      </c>
+      <c r="E71" s="3">
+        <v>44372</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="32"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="4">
+        <v>71</v>
+      </c>
+      <c r="D72" s="4">
+        <v>47</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44463</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A21:A70"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B55"/>
@@ -2928,6 +3003,8 @@
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A21:A72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
